--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail0 Features.xlsx
@@ -4116,7 +4116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,29 +4127,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4170,115 +4168,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4295,72 +4283,66 @@
         <v>3.708121351714162e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.564835502511101</v>
+        <v>2.353224205869742e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.577656467225667</v>
+        <v>2.583265892779288e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.353224205869742e-06</v>
+        <v>0.08086563314582619</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.583265892779288e-06</v>
+        <v>0.3044506873243923</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08086563314582619</v>
+        <v>0.09904743579598214</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3044506873243923</v>
+        <v>1.931853365188694</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09904743579598214</v>
+        <v>3.447442847236801</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.966721790442795</v>
+        <v>6.706438191139259</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.447442847236801</v>
+        <v>8.835167777620301e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.706438191139259</v>
+        <v>19031634857.73787</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.835167777620301e-18</v>
+        <v>6.345274012313576e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>19031634857.73787</v>
+        <v>3200.125382118692</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.345274012313576e-09</v>
+        <v>9.985786825431781e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3200.125382118692</v>
+        <v>12.71542348531892</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.985786825431781e-05</v>
+        <v>1.031871041482048</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.71542348531892</v>
+        <v>0.01614521929698897</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.031871041482048</v>
+        <v>5.071623026087824</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01614521929698897</v>
+        <v>0.9539125790237694</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.071623026087824</v>
+        <v>0.7998728797433549</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9539125790237694</v>
+        <v>40</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7998728797433549</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>7.271266305626314</v>
       </c>
     </row>
@@ -4375,72 +4357,66 @@
         <v>2.948298694025866e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.861163324461928</v>
+        <v>1.804352335155951e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>5.369596929744338</v>
+        <v>2.608395683791088e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.804352335155951e-06</v>
+        <v>0.07036715652410049</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.608395683791088e-06</v>
+        <v>0.3062618890671054</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07036715652410049</v>
+        <v>0.09857614763201841</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3062618890671054</v>
+        <v>1.933581639864854</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09857614763201841</v>
+        <v>3.072451493269205</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.968998311289057</v>
+        <v>6.793269671076468</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.072451493269205</v>
+        <v>8.610749272870508e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.793269671076468</v>
+        <v>19596973162.54555</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.610749272870508e-18</v>
+        <v>6.154694196594308e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>19596973162.54555</v>
+        <v>3306.883836689752</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.154694196594308e-09</v>
+        <v>9.980607290748704e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3306.883836689752</v>
+        <v>10.63315118298777</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>9.980607290748704e-05</v>
+        <v>1.178080546149353</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.63315118298777</v>
+        <v>0.01128446425384096</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.178080546149353</v>
+        <v>5.104270870143763</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01128446425384096</v>
+        <v>0.95323326224256</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.104270870143763</v>
+        <v>0.7964785126906868</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.95323326224256</v>
+        <v>40</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7964785126906868</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>6.271970893462505</v>
       </c>
     </row>
@@ -4455,72 +4431,66 @@
         <v>2.45408107867706e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.02752870323976</v>
+        <v>1.375975662012342e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.703506731079107</v>
+        <v>2.625372037523129e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.375975662012342e-06</v>
+        <v>0.05511937099592856</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.625372037523129e-06</v>
+        <v>0.2973317706953539</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.05511937099592856</v>
+        <v>0.09128580566737114</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2973317706953539</v>
+        <v>1.938304034652303</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09128580566737114</v>
+        <v>2.866388456415994</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.971353772226318</v>
+        <v>7.133614484959517</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.866388456415994</v>
+        <v>7.808711590898997e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.133614484959517</v>
+        <v>21255433410.43873</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.808711590898997e-18</v>
+        <v>5.680094253366892e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>21255433410.43873</v>
+        <v>3527.924745534232</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.680094253366892e-09</v>
+        <v>9.313947933628006e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3527.924745534232</v>
+        <v>8.97430161462929</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.313947933628006e-05</v>
+        <v>1.375328403852716</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.97430161462929</v>
+        <v>0.00750127572000601</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.375328403852716</v>
+        <v>5.335816974447196</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00750127572000601</v>
+        <v>0.9533028536125792</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.335816974447196</v>
+        <v>0.8253060615081053</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9533028536125792</v>
+        <v>40</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8253060615081053</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>6.324638799531812</v>
       </c>
     </row>
@@ -4535,72 +4505,66 @@
         <v>2.17847556750404e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.3899545929277161</v>
+        <v>1.027444766348687e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.7679291208381174</v>
+        <v>2.635845434377597e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.027444766348687e-06</v>
+        <v>0.03513614750877996</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.635845434377597e-06</v>
+        <v>0.2682428592967165</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03513614750877996</v>
+        <v>0.07305287278594336</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2682428592967165</v>
+        <v>1.932462760016058</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07305287278594336</v>
+        <v>3.34147547344987</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.968361847482594</v>
+        <v>7.130984771976895</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.34147547344987</v>
+        <v>8.483135854428232e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.130984771976895</v>
+        <v>18788124983.38163</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.483135854428232e-18</v>
+        <v>6.405945771724579e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>18788124983.38163</v>
+        <v>2994.493007187472</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.405945771724579e-09</v>
+        <v>7.837151502244698e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2994.493007187472</v>
+        <v>8.821237360522629</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>7.837151502244698e-05</v>
+        <v>1.361401559483979</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.821237360522629</v>
+        <v>0.006098418983387189</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.361401559483979</v>
+        <v>5.694062647398026</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006098418983387189</v>
+        <v>0.9540812174608106</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.694062647398026</v>
+        <v>0.8246588738655755</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9540812174608106</v>
+        <v>40</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8246588738655755</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>7.279016253763054</v>
       </c>
     </row>
@@ -4615,72 +4579,66 @@
         <v>2.06538276292045e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1391669248657461</v>
+        <v>7.454274747940947e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.521403821157615</v>
+        <v>2.641015964586742e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.454274747940947e-07</v>
+        <v>0.01409291019421801</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.641015964586742e-06</v>
+        <v>0.22349838714582</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01409291019421801</v>
+        <v>0.05005579177921596</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.22349838714582</v>
+        <v>1.920893807840533</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05005579177921596</v>
+        <v>3.475392446285919</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.961958919691823</v>
+        <v>6.643514585205635</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.475392446285919</v>
+        <v>1.268649310174004e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.643514585205635</v>
+        <v>12433033081.55394</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.268649310174004e-17</v>
+        <v>9.642237921741878e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>12433033081.55394</v>
+        <v>1961.082056867218</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.642237921741878e-09</v>
+        <v>8.41306746946769e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1961.082056867218</v>
+        <v>9.688433746026842</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>8.41306746946769e-05</v>
+        <v>1.258027861220524</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.688433746026842</v>
+        <v>0.007896988747916217</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.258027861220524</v>
+        <v>5.50127582721632</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007896988747916217</v>
+        <v>0.9549790399570258</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.50127582721632</v>
+        <v>0.8648649391453329</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9549790399570258</v>
+        <v>40</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8648649391453329</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>7.03154499034627</v>
       </c>
     </row>
@@ -4695,72 +4653,66 @@
         <v>2.047688309744801e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1108309041632701</v>
+        <v>5.726072374733387e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.580274719501193</v>
+        <v>2.642001565401068e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.726072374733387e-07</v>
+        <v>-0.003643877679338026</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.642001565401068e-06</v>
+        <v>0.1786261522383492</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.003643877679338026</v>
+        <v>0.03186398708511728</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1786261522383492</v>
+        <v>1.916977386926454</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03186398708511728</v>
+        <v>3.341901796985153</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.958558366221976</v>
+        <v>5.930266292732455</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.341901796985153</v>
+        <v>1.664236788488307e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.930266292732455</v>
+        <v>9517958829.181879</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.664236788488307e-17</v>
+        <v>1.258552974327431e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>9517958829.181879</v>
+        <v>1507.65774049813</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.258552974327431e-08</v>
+        <v>0.0001103150327271418</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1507.65774049813</v>
+        <v>10.45651574258375</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001103150327271418</v>
+        <v>1.193308743619966</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.45651574258375</v>
+        <v>0.01206170463784763</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.193308743619966</v>
+        <v>4.838862847297746</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01206170463784763</v>
+        <v>0.9566600486134093</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.838862847297746</v>
+        <v>0.9114951510528047</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9566600486134093</v>
+        <v>40</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9114951510528047</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>5.486185610977408</v>
       </c>
     </row>
@@ -4775,72 +4727,66 @@
         <v>2.071953095857843e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1150317325609073</v>
+        <v>5.726933181629485e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.587428410979193</v>
+        <v>2.639767936646011e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.726933181629485e-07</v>
+        <v>-0.01732775017564182</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.639767936646011e-06</v>
+        <v>0.1397126779795087</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01732775017564182</v>
+        <v>0.01978465242973396</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1397126779795087</v>
+        <v>1.915539134828405</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01978465242973396</v>
+        <v>3.208980278774452</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.955176771547846</v>
+        <v>5.785166894218841</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.208980278774452</v>
+        <v>1.748766093286968e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.785166894218841</v>
+        <v>9250183293.621449</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.748766093286968e-17</v>
+        <v>1.29823858135082e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>9250183293.621449</v>
+        <v>1496.347288625193</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.29823858135082e-08</v>
+        <v>0.0001206351210039085</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1496.347288625193</v>
+        <v>10.90797523791514</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001206351210039085</v>
+        <v>1.151286483588183</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.90797523791514</v>
+        <v>0.01435364004404348</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.151286483588183</v>
+        <v>4.522023924738801</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01435364004404348</v>
+        <v>0.9580199453649031</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.522023924738801</v>
+        <v>1.038127007105192</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9580199453649031</v>
+        <v>40</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.038127007105192</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>4.778668145050375</v>
       </c>
     </row>
@@ -4855,72 +4801,66 @@
         <v>2.106364948721592e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.08916958961113362</v>
+        <v>5.726933181629485e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.621119446171506</v>
+        <v>2.634997654350865e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.726933181629485e-07</v>
+        <v>-0.02768393026374281</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.634997654350865e-06</v>
+        <v>0.1069437172120978</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02768393026374281</v>
+        <v>0.01218284717485204</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1069437172120978</v>
+        <v>1.91159777218053</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01218284717485204</v>
+        <v>2.645874537027419</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.954527377021359</v>
+        <v>5.863820251276157</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.645874537027419</v>
+        <v>2.606739893230585e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.863820251276157</v>
+        <v>6204962279.011147</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.606739893230585e-17</v>
+        <v>1.93349961285949e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>6204962279.011147</v>
+        <v>1003.635442808822</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.93349961285949e-08</v>
+        <v>0.0001072421517043293</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1003.635442808822</v>
+        <v>10.53367799229396</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001072421517043293</v>
+        <v>1.175352841601965</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.53367799229396</v>
+        <v>0.01189941456775157</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.175352841601965</v>
+        <v>4.652133826939619</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01189941456775157</v>
+        <v>0.9587473509493903</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.652133826939619</v>
+        <v>1.075649992384048</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9587473509493903</v>
+        <v>34</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.075649992384048</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>4.574208823758686</v>
       </c>
     </row>
@@ -4935,72 +4875,66 @@
         <v>2.133676768517781e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03698108551023797</v>
+        <v>5.726933181629485e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.644363469871309</v>
+        <v>2.62829590779513e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.726933181629485e-07</v>
+        <v>-0.03492460537221404</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.62829590779513e-06</v>
+        <v>0.08325189310651508</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03492460537221404</v>
+        <v>0.008140934953890702</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08325189310651508</v>
+        <v>1.918888430909426</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.008140934953890702</v>
+        <v>2.634289371595889</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.95507735591714</v>
+        <v>4.64480963883496</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.634289371595889</v>
+        <v>3.028061387017362e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.64480963883496</v>
+        <v>5423361836.714815</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.028061387017362e-17</v>
+        <v>2.217695827274006e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>5423361836.714815</v>
+        <v>890.6392630429358</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.217695827274006e-08</v>
+        <v>5.94125228183436e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>890.6392630429358</v>
+        <v>8.70267413747416</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>5.94125228183436e-05</v>
+        <v>1.195040689910245</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.70267413747416</v>
+        <v>0.004499698741194475</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.195040689910245</v>
+        <v>5.249742393137291</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.004499698741194475</v>
+        <v>0.9598176316042418</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.249742393137291</v>
+        <v>1.019217818151317</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9598176316042418</v>
+        <v>4</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.019217818151317</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>5.08675957953615</v>
       </c>
     </row>
@@ -5015,72 +4949,66 @@
         <v>2.147068728228974e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.02461307636717125</v>
+        <v>5.726933181629485e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.647245031038302</v>
+        <v>2.620273779719696e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.726933181629485e-07</v>
+        <v>-0.03956753725068124</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.620273779719696e-06</v>
+        <v>0.06926469692891524</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03956753725068124</v>
+        <v>0.006359242693436667</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06926469692891524</v>
+        <v>1.91909135367933</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.006359242693436667</v>
+        <v>2.717111264299697</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.948370340630549</v>
+        <v>4.431829515189138</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.717111264299697</v>
+        <v>3.533556143317644e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.431829515189138</v>
+        <v>4839258585.895164</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.533556143317644e-17</v>
+        <v>2.497448945662189e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>4839258585.895164</v>
+        <v>827.5031479470739</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.497448945662189e-08</v>
+        <v>5.196618278114165e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>827.5031479470739</v>
+        <v>7.028818271914527</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>5.196618278114165e-05</v>
+        <v>1.944238627052884</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.028818271914527</v>
+        <v>0.002567352172016841</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.944238627052884</v>
+        <v>5.209026943029926</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.002567352172016841</v>
+        <v>0.9603675775986066</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>5.209026943029926</v>
+        <v>1.035805364014085</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9603675775986066</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.035805364014085</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>4.37483295306609</v>
       </c>
     </row>
@@ -5095,72 +5023,66 @@
         <v>2.146136148389418e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.08538067112175696</v>
+        <v>5.726933181629485e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.638774681574532</v>
+        <v>2.611455929796256e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.726933181629485e-07</v>
+        <v>-0.04219558491223089</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.611455929796256e-06</v>
+        <v>0.06332549971278097</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04219558491223089</v>
+        <v>0.005789930253867892</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.06332549971278097</v>
+        <v>1.897331980222441</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.005789930253867892</v>
+        <v>2.194690403578824</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.907941608182992</v>
+        <v>6.630203277849485</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.194690403578824</v>
+        <v>9.502236975203848e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6.630203277849485</v>
+        <v>1772778758.439589</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.502236975203848e-17</v>
+        <v>6.78613778880031e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1772778758.439589</v>
+        <v>298.6310324213633</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.78613778880031e-08</v>
+        <v>8.689793997851738e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>298.6310324213633</v>
+        <v>7.44433329182123</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>8.689793997851738e-05</v>
+        <v>2.75739078536341</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.44433329182123</v>
+        <v>0.004815718567606751</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>2.75739078536341</v>
+        <v>4.711037900934069</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.004815718567606751</v>
+        <v>0.959773809664404</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.711037900934069</v>
+        <v>1.3275802000537</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.959773809664404</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.3275802000537</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>2.59180292119308</v>
       </c>
     </row>
@@ -5175,72 +5097,66 @@
         <v>2.134948914224672e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1430397396334765</v>
+        <v>5.726933181629485e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.62548105842511</v>
+        <v>2.602287621965321e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.726933181629485e-07</v>
+        <v>-0.04322738604912921</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.602287621965321e-06</v>
+        <v>0.06253777906538034</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04322738604912921</v>
+        <v>0.005779812710353605</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.06253777906538034</v>
+        <v>1.895890016554521</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005779812710353605</v>
+        <v>2.011454223707885</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.898709404428032</v>
+        <v>4.668100240915163</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.011454223707885</v>
+        <v>2.833803109993569e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.668100240915163</v>
+        <v>596426023.7029347</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.833803109993569e-16</v>
+        <v>2.019521176138836e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>596426023.7029347</v>
+        <v>100.8051782458773</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.019521176138836e-07</v>
+        <v>0.000189280131418111</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>100.8051782458773</v>
+        <v>8.87476711296744</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000189280131418111</v>
+        <v>2.216488539404189</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.87476711296744</v>
+        <v>0.01490798542573124</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>2.216488539404189</v>
+        <v>3.583827921296391</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01490798542573124</v>
+        <v>0.9596310609356348</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.583827921296391</v>
+        <v>1.386868527669428</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9596310609356348</v>
+        <v>3</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.386868527669428</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.024732289263799</v>
       </c>
     </row>
@@ -5255,72 +5171,66 @@
         <v>2.118754103728416e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1996329832597542</v>
+        <v>5.688059230644913e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.606121015403165</v>
+        <v>2.593062196655643e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.688059230644913e-07</v>
+        <v>-0.04340400457747803</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.593062196655643e-06</v>
+        <v>0.0630603698868578</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04340400457747803</v>
+        <v>0.005860634176591151</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.0630603698868578</v>
+        <v>1.894240626936394</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005860634176591151</v>
+        <v>2.017099926342867</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.890636788296755</v>
+        <v>4.096372392125902</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.017099926342867</v>
+        <v>3.680028297974715e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.096372392125902</v>
+        <v>452888600.6349466</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.680028297974715e-16</v>
+        <v>2.656484417167866e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>452888600.6349466</v>
+        <v>75.48035554164866</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.656484417167866e-07</v>
+        <v>0.0001578506687750614</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>75.48035554164866</v>
+        <v>9.524106764445305</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001578506687750614</v>
+        <v>1.427534987736185</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.524106764445305</v>
+        <v>0.01431841469857426</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.427534987736185</v>
+        <v>3.189140033637633</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01431841469857426</v>
+        <v>0.9589223606640263</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.189140033637633</v>
+        <v>1.453766618976653</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9589223606640263</v>
+        <v>3</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.453766618976653</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.5290077177132636</v>
       </c>
     </row>
@@ -5335,72 +5245,66 @@
         <v>2.101040528196899e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2573560883915965</v>
+        <v>5.683763645361275e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.57721320797467</v>
+        <v>2.583929515697706e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.683763645361275e-07</v>
+        <v>-0.04311271428000257</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.583929515697706e-06</v>
+        <v>0.06364354369902074</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04311271428000257</v>
+        <v>0.005909119590134733</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.06364354369902074</v>
+        <v>1.887401389302053</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.005909119590134733</v>
+        <v>2.004666285447092</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.88552742461194</v>
+        <v>4.002365564908728</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.004666285447092</v>
+        <v>3.854930144241712e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.002365564908728</v>
+        <v>421755881.4887391</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.854930144241712e-16</v>
+        <v>2.850277225924713e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>421755881.4887391</v>
+        <v>68.57073550594542</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.850277225924713e-07</v>
+        <v>0.0001483140846431738</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>68.57073550594542</v>
+        <v>10.38434809121367</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001483140846431738</v>
+        <v>1.122371965122831</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.38434809121367</v>
+        <v>0.01599340264001273</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.122371965122831</v>
+        <v>2.915564511452971</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01599340264001273</v>
+        <v>0.9584706019129877</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.915564511452971</v>
+        <v>1.466030394632604</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9584706019129877</v>
+        <v>3</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.466030394632604</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.378095843745328</v>
       </c>
     </row>
@@ -5415,72 +5319,66 @@
         <v>2.083572869681003e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.317337863286796</v>
+        <v>5.683763645361275e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.536339419236948</v>
+        <v>2.574958779096026e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.683763645361275e-07</v>
+        <v>-0.04259824022802811</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.574958779096026e-06</v>
+        <v>0.06408454293024184</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04259824022802811</v>
+        <v>0.005921157663474947</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.06408454293024184</v>
+        <v>1.881145266854946</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.005921157663474947</v>
+        <v>2.003496048268494</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.880219982107417</v>
+        <v>3.992375415113592</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.003496048268494</v>
+        <v>3.874246721051438e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.992375415113592</v>
+        <v>408955840.0296291</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.874246721051438e-16</v>
+        <v>2.927881654411957e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>408955840.0296291</v>
+        <v>64.79479244438893</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.927881654411957e-07</v>
+        <v>0.0001476156254556977</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>64.79479244438893</v>
+        <v>10.16385911355989</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001476156254556977</v>
+        <v>1.166712937106354</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.16385911355989</v>
+        <v>0.01524928930762814</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.166712937106354</v>
+        <v>2.793413657304307</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01524928930762814</v>
+        <v>0.9600651117271821</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.793413657304307</v>
+        <v>1.470836822556709</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9600651117271821</v>
+        <v>3</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.470836822556709</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3197574990532707</v>
       </c>
     </row>
@@ -5495,72 +5393,66 @@
         <v>2.067453509820785e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3800826502144632</v>
+        <v>5.683763645361275e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.482133149333848</v>
+        <v>2.56619923228963e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.683763645361275e-07</v>
+        <v>-0.04177473641847598</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.56619923228963e-06</v>
+        <v>0.06426444280382029</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04177473641847598</v>
+        <v>0.005874583667090556</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.06426444280382029</v>
+        <v>1.884221859513631</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.005874583667090556</v>
+        <v>2.017954221263977</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.883644013470854</v>
+        <v>3.997144623318904</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.017954221263977</v>
+        <v>3.865007092272788e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.997144623318904</v>
+        <v>411276008.8038068</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.865007092272788e-16</v>
+        <v>2.916088379062397e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>411276008.8038068</v>
+        <v>65.37580473324226</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.916088379062397e-07</v>
+        <v>0.0001409829760054024</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>65.37580473324226</v>
+        <v>8.955823670886566</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001409829760054024</v>
+        <v>1.21924361986572</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.955823670886566</v>
+        <v>0.01130779020523675</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.21924361986572</v>
+        <v>2.956037508387835</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01130779020523675</v>
+        <v>0.9611916799293784</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.956037508387835</v>
+        <v>1.470237063590396</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9611916799293784</v>
+        <v>34</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.470237063590396</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.298771180903996</v>
       </c>
     </row>
@@ -5575,72 +5467,66 @@
         <v>2.053398077398555e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4456072468847521</v>
+        <v>5.705159255136975e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.414334341007426</v>
+        <v>2.557690724895929e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.705159255136975e-07</v>
+        <v>-0.04082645542579722</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.557690724895929e-06</v>
+        <v>0.06429938236373291</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04082645542579722</v>
+        <v>0.005800772251523679</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.06429938236373291</v>
+        <v>1.887489986261139</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.005800772251523679</v>
+        <v>2.012982647320888</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.885452952889912</v>
+        <v>4.002700807574659</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.012982647320888</v>
+        <v>3.854284438753651e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.002700807574659</v>
+        <v>427068520.7016692</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.854284438753651e-16</v>
+        <v>2.822860938926249e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>427068520.7016692</v>
+        <v>70.29733854558599</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.822860938926249e-07</v>
+        <v>0.0001482479215559425</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>70.29733854558599</v>
+        <v>7.754567741869667</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001482479215559425</v>
+        <v>1.554729165814185</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.754567741869667</v>
+        <v>0.008914639834232758</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.554729165814185</v>
+        <v>3.092469429349021</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.008914639834232758</v>
+        <v>0.9615716075948118</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.092469429349021</v>
+        <v>1.451386973192711</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9615716075948118</v>
+        <v>82</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.451386973192711</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2894872968097084</v>
       </c>
     </row>
@@ -5655,72 +5541,66 @@
         <v>2.041325710358347e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.513355999378992</v>
+        <v>5.757608411368032e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.333735409926974</v>
+        <v>2.549424762603391e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.757608411368032e-07</v>
+        <v>-0.03995663300854784</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.549424762603391e-06</v>
+        <v>0.06435901824692347</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03995663300854784</v>
+        <v>0.005738303241156299</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.06435901824692347</v>
+        <v>1.879427928676602</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.005738303241156299</v>
+        <v>1.990077152376232</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.881169753793148</v>
+        <v>4.024175550279566</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.990077152376232</v>
+        <v>3.813257938815729e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.024175550279566</v>
+        <v>441438126.3787445</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.813257938815729e-16</v>
+        <v>2.730059015618378e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>441438126.3787445</v>
+        <v>74.3080496774398</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.730059015618378e-07</v>
+        <v>0.0001585644391852011</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>74.3080496774398</v>
+        <v>8.722822921097366</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001585644391852011</v>
+        <v>1.453227181984728</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.722822921097366</v>
+        <v>0.01206479391998919</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.453227181984728</v>
+        <v>3.037558032487853</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01206479391998919</v>
+        <v>0.9612449558991996</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.037558032487853</v>
+        <v>1.436931572265977</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9612449558991996</v>
+        <v>123</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.436931572265977</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.3017914274586227</v>
       </c>
     </row>
@@ -5735,72 +5615,66 @@
         <v>2.030719182168076e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.5827328763858993</v>
+        <v>5.810431654738008e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.241033093419619</v>
+        <v>2.541358874563925e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.810431654738008e-07</v>
+        <v>-0.03934093417479276</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.541358874563925e-06</v>
+        <v>0.06454883949057416</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.03934093417479276</v>
+        <v>0.005714168176189535</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.06454883949057416</v>
+        <v>1.882279554653422</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.005714168176189535</v>
+        <v>1.964835420446817</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.885352782173928</v>
+        <v>4.069862185956564</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.964835420446817</v>
+        <v>3.728126263619602e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.069862185956564</v>
+        <v>459368754.5348738</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.728126263619602e-16</v>
+        <v>2.628995184289372e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>459368754.5348738</v>
+        <v>78.67079091579598</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.628995184289372e-07</v>
+        <v>0.0001583596794217545</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>78.67079091579598</v>
+        <v>10.5843443148771</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001583596794217545</v>
+        <v>1.12686356714529</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.5843443148771</v>
+        <v>0.01774077273318479</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.12686356714529</v>
+        <v>2.817944854605852</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01774077273318479</v>
+        <v>0.9605650977217068</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.817944854605852</v>
+        <v>1.448643767869278</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9605650977217068</v>
+        <v>150</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.448643767869278</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.3063399122862133</v>
       </c>
     </row>
@@ -5815,72 +5689,66 @@
         <v>2.020554313058027e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.653470362591912</v>
+        <v>5.861703930585783e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.135811302229312</v>
+        <v>2.533413891971459e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.861703930585783e-07</v>
+        <v>-0.03920222834966976</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.533413891971459e-06</v>
+        <v>0.06487918905486748</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03920222834966976</v>
+        <v>0.005746240693664473</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.06487918905486748</v>
+        <v>1.89424652096376</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.005746240693664473</v>
+        <v>1.95606513687435</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.892404823316949</v>
+        <v>4.163644007116531</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.95606513687435</v>
+        <v>3.562073192984092e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.163644007116531</v>
+        <v>500530614.2368199</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.562073192984092e-16</v>
+        <v>2.423815848925598e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>500530614.2368199</v>
+        <v>89.24093879017525</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.423815848925598e-07</v>
+        <v>0.0001567044241878613</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>89.24093879017525</v>
+        <v>10.60413972681818</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001567044241878613</v>
+        <v>1.123685475290191</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.60413972681818</v>
+        <v>0.01762106451360037</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.123685475290191</v>
+        <v>2.706934475752325</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01762106451360037</v>
+        <v>0.9608512972476289</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.706934475752325</v>
+        <v>1.444616892077013</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9608512972476289</v>
+        <v>188</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.444616892077013</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2929802496203212</v>
       </c>
     </row>
@@ -5895,72 +5763,66 @@
         <v>2.009180223541169e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.7258431936747216</v>
+        <v>5.910771940958547e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.015612590704702</v>
+        <v>2.525467588446254e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.910771940958547e-07</v>
+        <v>-0.03980480340531804</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.525467588446254e-06</v>
+        <v>0.06506351251170912</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03980480340531804</v>
+        <v>0.005817812709981995</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.06506351251170912</v>
+        <v>1.896280326756793</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.005817812709981995</v>
+        <v>2.0306914635286</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.894686122000239</v>
+        <v>4.258804943107776</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.0306914635286</v>
+        <v>3.404666051395194e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.258804943107776</v>
+        <v>521791608.2558807</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.404666051395194e-16</v>
+        <v>2.324882557372936e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>521791608.2558807</v>
+        <v>92.69764497175616</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.324882557372936e-07</v>
+        <v>0.0001478916953451069</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>92.69764497175616</v>
+        <v>9.210389482877995</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001478916953451069</v>
+        <v>1.195809063388508</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.210389482877995</v>
+        <v>0.01254584099319294</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.195809063388508</v>
+        <v>2.884817609878395</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01254584099319294</v>
+        <v>0.9605733847876574</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.884817609878395</v>
+        <v>1.417574842555391</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9605733847876574</v>
+        <v>190</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.417574842555391</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2938140428991533</v>
       </c>
     </row>
@@ -5975,72 +5837,66 @@
         <v>1.994138538876418e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.8005433748978635</v>
+        <v>5.955667898063194e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.875633665234024</v>
+        <v>2.517355710892835e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.955667898063194e-07</v>
+        <v>-0.04139265751143395</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.517355710892835e-06</v>
+        <v>0.06439080694619574</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04139265751143395</v>
+        <v>0.005859263038946929</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.06439080694619574</v>
+        <v>1.897708211615988</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.005859263038946929</v>
+        <v>1.975655208629468</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.898791082752477</v>
+        <v>4.291876601257439</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.975655208629468</v>
+        <v>3.352397944682106e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.291876601257439</v>
+        <v>519340463.4036487</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.352397944682106e-16</v>
+        <v>2.33011131667962e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>519340463.4036487</v>
+        <v>90.41903922014156</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.33011131667962e-07</v>
+        <v>0.0001485512758546964</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>90.41903922014156</v>
+        <v>8.088255561520475</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001485512758546964</v>
+        <v>1.381965145323105</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.088255561520475</v>
+        <v>0.009718206347387379</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.381965145323105</v>
+        <v>3.006715954217027</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.009718206347387379</v>
+        <v>0.9592793461214704</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.006715954217027</v>
+        <v>1.431088346573365</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9592793461214704</v>
+        <v>190</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.431088346573365</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.324068264656851</v>
       </c>
     </row>
@@ -6055,72 +5911,66 @@
         <v>1.972028266273957e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.8778692146563968</v>
+        <v>5.995536628145983e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.7103147622155404</v>
+        <v>2.508889349195574e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.995536628145983e-07</v>
+        <v>-0.044183360350013</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.508889349195574e-06</v>
+        <v>0.06165023758698591</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.044183360350013</v>
+        <v>0.005751470324906679</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.06165023758698591</v>
+        <v>1.903875080729128</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.005751470324906679</v>
+        <v>1.936382191722238</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.902933743586108</v>
+        <v>4.488623267631395</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.936382191722238</v>
+        <v>3.064952204997731e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.488623267631395</v>
+        <v>572693602.4685904</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.064952204997731e-16</v>
+        <v>2.119691066416587e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>572693602.4685904</v>
+        <v>100.5236778767952</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.119691066416587e-07</v>
+        <v>0.0001562545565214725</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>100.5236778767952</v>
+        <v>8.335986198900208</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001562545565214725</v>
+        <v>1.442000316242136</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.335986198900208</v>
+        <v>0.01085792067476312</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.442000316242136</v>
+        <v>3.044582966759847</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01085792067476312</v>
+        <v>0.9583231856094301</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.044582966759847</v>
+        <v>1.428871183769316</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9583231856094301</v>
+        <v>190</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.428871183769316</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.4327103650465135</v>
       </c>
     </row>
@@ -6135,72 +5985,66 @@
         <v>1.937874187641792e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.9558050282515251</v>
+        <v>6.02614196140924e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.5191145912748185</v>
+        <v>2.499858190662903e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.02614196140924e-07</v>
+        <v>-0.04821197026634178</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.499858190662903e-06</v>
+        <v>0.05568762364286093</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04821197026634178</v>
+        <v>0.005423913333003223</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.05568762364286093</v>
+        <v>1.900905607977299</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.005423913333003223</v>
+        <v>1.94068081683962</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.904086545573454</v>
+        <v>4.642345879377425</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.94068081683962</v>
+        <v>2.865332528604934e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.642345879377425</v>
+        <v>601271422.8994968</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.865332528604934e-16</v>
+        <v>2.013450172572583e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>601271422.8994968</v>
+        <v>103.5896001424046</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.013450172572583e-07</v>
+        <v>0.0001743908714311747</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>103.5896001424046</v>
+        <v>11.0954052504258</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001743908714311747</v>
+        <v>1.140801229036725</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.0954052504258</v>
+        <v>0.02146891448184088</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.140801229036725</v>
+        <v>2.897320617666446</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02146891448184088</v>
+        <v>0.9568396785745823</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.897320617666446</v>
+        <v>1.412331904537417</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9568396785745823</v>
+        <v>190</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.412331904537417</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.7166463642468599</v>
       </c>
     </row>
@@ -6215,72 +6059,66 @@
         <v>1.888759108178406e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.02959873005028</v>
+        <v>6.04313682706244e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.3147837418028483</v>
+        <v>2.490257803090628e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6.04313682706244e-07</v>
+        <v>-0.05192424252112661</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.490257803090628e-06</v>
+        <v>0.05184858169098803</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05192424252112661</v>
+        <v>0.005384115075169681</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.05184858169098803</v>
+        <v>1.897331170320157</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.005384115075169681</v>
+        <v>1.948828211892717</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.909918438613458</v>
+        <v>4.629887015838509</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.948828211892717</v>
+        <v>2.726375475264994e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.629887015838509</v>
+        <v>618498946.4510164</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.726375475264994e-16</v>
+        <v>1.9471860762684e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>618498946.4510164</v>
+        <v>104.2950255533889</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.9471860762684e-07</v>
+        <v>0.000209913390073653</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>104.2950255533889</v>
+        <v>13.33012861395594</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.000209913390073653</v>
+        <v>1.004948901310516</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>13.33012861395594</v>
+        <v>0.03729999914205206</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.004948901310516</v>
+        <v>2.697049216785467</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.03729999914205206</v>
+        <v>0.9566792510004943</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.697049216785467</v>
+        <v>1.416267484620018</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9566792510004943</v>
+        <v>190</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.416267484620018</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>1.126416810110797</v>
       </c>
     </row>
@@ -6295,72 +6133,66 @@
         <v>1.826306876835743e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.096180769873514</v>
+        <v>6.045231204394973e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.1122635240546752</v>
+        <v>2.480324634942881e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6.045231204394973e-07</v>
+        <v>-0.05484949043971097</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.480324634942881e-06</v>
+        <v>0.05161898302022029</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05484949043971097</v>
+        <v>0.005673274108294195</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.05161898302022029</v>
+        <v>1.91146562808113</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.005673274108294195</v>
+        <v>1.99690448217819</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.94225499366196</v>
+        <v>4.624950769645247</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.99690448217819</v>
+        <v>2.873391651888852e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.624950769645247</v>
+        <v>584012791.0296291</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.873391651888852e-16</v>
+        <v>2.069106653332012e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>584012791.0296291</v>
+        <v>98.00303919456195</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.069106653332012e-07</v>
+        <v>0.0002356167003161028</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>98.00303919456195</v>
+        <v>12.03407677620494</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0002356167003161028</v>
+        <v>1.292620629680212</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>12.03407677620494</v>
+        <v>0.03412177583152028</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.292620629680212</v>
+        <v>3.012903454465413</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.03412177583152028</v>
+        <v>0.9579590923679554</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.012903454465413</v>
+        <v>1.20413934960843</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9579590923679554</v>
+        <v>187</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.20413934960843</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>187</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>1.626694047002517</v>
       </c>
     </row>
@@ -6375,72 +6207,66 @@
         <v>1.752710753192213e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.153982930449106</v>
+        <v>6.044644616831084e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.07634169740535901</v>
+        <v>2.470286348340949e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>6.044644616831084e-07</v>
+        <v>-0.05719966763891209</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.470286348340949e-06</v>
+        <v>0.05369728982521577</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05719966763891209</v>
+        <v>0.006155592861467652</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.05369728982521577</v>
+        <v>1.913755773731858</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.006155592861467652</v>
+        <v>1.892776478916653</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.949441427233989</v>
+        <v>5.485968108174403</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.892776478916653</v>
+        <v>1.963361170643711e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.485968108174403</v>
+        <v>860362255.06311</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.963361170643711e-16</v>
+        <v>1.406304295142501e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>860362255.06311</v>
+        <v>145.3325508000104</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.406304295142501e-07</v>
+        <v>0.0001970660951699991</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>145.3325508000104</v>
+        <v>12.43947804537356</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001970660951699991</v>
+        <v>1.234803301629092</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>12.43947804537356</v>
+        <v>0.03049412857333297</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.234803301629092</v>
+        <v>3.623496800799425</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.03049412857333297</v>
+        <v>0.9596535342745777</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.623496800799425</v>
+        <v>1.172588290586529</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9596535342745777</v>
+        <v>187</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.172588290586529</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>187</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>2.888939440283801</v>
       </c>
     </row>
@@ -6455,72 +6281,66 @@
         <v>1.669860260941394e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.201474722876854</v>
+        <v>5.984153053237762e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.2377266312774564</v>
+        <v>2.460328785518752e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.984153053237762e-07</v>
+        <v>-0.05903376695340287</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.460328785518752e-06</v>
+        <v>0.05725509138791204</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05903376695340287</v>
+        <v>0.006763218750304168</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.05725509138791204</v>
+        <v>1.8963665719723</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.006763218750304168</v>
+        <v>2.09167754608042</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.922847553741337</v>
+        <v>5.287461254758301</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.09167754608042</v>
+        <v>1.335195623798883e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.287461254758301</v>
+        <v>1283370533.847856</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.335195623798883e-16</v>
+        <v>9.390812004110478e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1283370533.847856</v>
+        <v>219.9120502951283</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.390812004110478e-08</v>
+        <v>0.0001686783097011408</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>219.9120502951283</v>
+        <v>13.28315124712793</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001686783097011408</v>
+        <v>1.033017139444449</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>13.28315124712793</v>
+        <v>0.02976195637798932</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.033017139444449</v>
+        <v>3.766835770156088</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.02976195637798932</v>
+        <v>0.9584479381906292</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.766835770156088</v>
+        <v>1.279731009089228</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9584479381906292</v>
+        <v>188</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.279731009089228</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>3.382211296853725</v>
       </c>
     </row>
@@ -6535,72 +6355,66 @@
         <v>1.58150651497205e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.239532677546981</v>
+        <v>5.812260905125647e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.3695157579241375</v>
+        <v>2.450620133212229e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.812260905125647e-07</v>
+        <v>-0.0603327854182097</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.450620133212229e-06</v>
+        <v>0.06084195804149381</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.0603327854182097</v>
+        <v>0.007341088419423993</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.06084195804149381</v>
+        <v>1.904781328097056</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.007341088419423993</v>
+        <v>2.224974989306289</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.922270903490402</v>
+        <v>4.881610819797459</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.224974989306289</v>
+        <v>1.856764890556723e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.881610819797459</v>
+        <v>920096360.397041</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.856764890556723e-16</v>
+        <v>1.311699286306417e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>920096360.397041</v>
+        <v>157.1895030835679</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.311699286306417e-07</v>
+        <v>0.0002034727858615123</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>157.1895030835679</v>
+        <v>9.480424080773631</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002034727858615123</v>
+        <v>1.714412369383818</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.480424080773631</v>
+        <v>0.01828781672855844</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.714412369383818</v>
+        <v>3.392665673598665</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01828781672855844</v>
+        <v>0.9597914214654319</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.392665673598665</v>
+        <v>1.3838106993649</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9597914214654319</v>
+        <v>188</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.3838106993649</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>1.375135957022675</v>
       </c>
     </row>
@@ -6615,72 +6429,66 @@
         <v>1.491790892370818e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.270892135542178</v>
+        <v>5.578125732733373e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.4809312857314665</v>
+        <v>2.441265616284511e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.578125732733373e-07</v>
+        <v>-0.06142253066249349</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.441265616284511e-06</v>
+        <v>0.06378374786582326</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.06142253066249349</v>
+        <v>0.007839758743573604</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.06378374786582326</v>
+        <v>1.908347571176253</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.007839758743573604</v>
+        <v>2.366807161738482</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.921106113533229</v>
+        <v>4.579256391949734</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.366807161738482</v>
+        <v>2.11005269234832e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.579256391949734</v>
+        <v>831077141.0047185</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.11005269234832e-16</v>
+        <v>1.457419233407439e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>831077141.0047185</v>
+        <v>145.7390636210878</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.457419233407439e-07</v>
+        <v>0.0001559014159275356</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>145.7390636210878</v>
+        <v>8.835218212425326</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001559014159275356</v>
+        <v>1.59178629839377</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.835218212425326</v>
+        <v>0.01216983303509059</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.59178629839377</v>
+        <v>3.296718946043282</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01216983303509059</v>
+        <v>0.9593789929312572</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.296718946043282</v>
+        <v>1.404277941397593</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9593789929312572</v>
+        <v>188</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.404277941397593</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.6543011356063304</v>
       </c>
     </row>
@@ -6695,72 +6503,66 @@
         <v>1.402892903871465e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.296514161948482</v>
+        <v>5.322323814029584e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.5752726145645477</v>
+        <v>2.43230066103189e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.322323814029584e-07</v>
+        <v>-0.06248755360338621</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.43230066103189e-06</v>
+        <v>0.0664104483045244</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.06248755360338621</v>
+        <v>0.008313287170150003</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.0664104483045244</v>
+        <v>1.906260415415224</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.008313287170150003</v>
+        <v>2.357341304366327</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.915786316945591</v>
+        <v>4.54726910025877</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.357341304366327</v>
+        <v>2.139842996060771e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.54726910025877</v>
+        <v>835537349.9360445</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.139842996060771e-16</v>
+        <v>1.450528505707174e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>835537349.9360445</v>
+        <v>149.3872891107459</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.450528505707174e-07</v>
+        <v>0.0001309263404148251</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>149.3872891107459</v>
+        <v>9.11299594230432</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001309263404148251</v>
+        <v>1.206506291613861</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.11299594230432</v>
+        <v>0.01087299986571648</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.206506291613861</v>
+        <v>3.121496556966997</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01087299986571648</v>
+        <v>0.9585195816213433</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.121496556966997</v>
+        <v>1.375210365346422</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9585195816213433</v>
+        <v>172</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.375210365346422</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>172</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.44856581690458</v>
       </c>
     </row>
@@ -6775,72 +6577,66 @@
         <v>1.315799544549585e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1.316070040456617</v>
+        <v>5.054530092972329e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.6495927578162628</v>
+        <v>2.423741579724321e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>5.054530092972329e-07</v>
+        <v>-0.06344822706791893</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.423741579724321e-06</v>
+        <v>0.06884157989958352</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.06344822706791893</v>
+        <v>0.008762520307544106</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.06884157989958352</v>
+        <v>1.90787684773655</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.008762520307544106</v>
+        <v>2.372363962668509</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.918558500444541</v>
+        <v>4.550666418653678</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.372363962668509</v>
+        <v>2.136649171824146e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.550666418653678</v>
+        <v>812410434.6957786</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.136649171824146e-16</v>
+        <v>1.487280157499157e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>812410434.6957786</v>
+        <v>141.0211346323344</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.487280157499157e-07</v>
+        <v>0.0001339304341187325</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>141.0211346323344</v>
+        <v>9.34822654470365</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001339304341187325</v>
+        <v>1.201400249926393</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.34822654470365</v>
+        <v>0.0117040921807498</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.201400249926393</v>
+        <v>2.916288510322202</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.0117040921807498</v>
+        <v>0.9583088349625412</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.916288510322202</v>
+        <v>1.403942774959942</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9583088349625412</v>
+        <v>124</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.403942774959942</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.3737565964455384</v>
       </c>
     </row>
@@ -6855,72 +6651,66 @@
         <v>1.231434896856021e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1.330039125575831</v>
+        <v>4.774701141117265e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.7039790620999176</v>
+        <v>2.415613733311903e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>4.774701141117265e-07</v>
+        <v>-0.0641915576537036</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.415613733311903e-06</v>
+        <v>0.07090825493772653</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.0641915576537036</v>
+        <v>0.009145605806896846</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.07090825493772653</v>
+        <v>1.913830014419485</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.009145605806896846</v>
+        <v>2.356910394579192</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.922110066846108</v>
+        <v>4.552242796446543</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.356910394579192</v>
+        <v>2.135169644794581e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.552242796446543</v>
+        <v>793951080.9570814</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.135169644794581e-16</v>
+        <v>1.521396213234314e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>793951080.9570814</v>
+        <v>134.5921947972011</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.521396213234314e-07</v>
+        <v>0.0001354085072639006</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>134.5921947972011</v>
+        <v>8.860642020443219</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001354085072639006</v>
+        <v>1.222203219344688</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.860642020443219</v>
+        <v>0.01063105420135628</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.222203219344688</v>
+        <v>2.971531333677146</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01063105420135628</v>
+        <v>0.9589300389769795</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.971531333677146</v>
+        <v>1.414057730285071</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9589300389769795</v>
+        <v>83</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.414057730285071</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.3524571908792209</v>
       </c>
     </row>
@@ -6935,72 +6725,66 @@
         <v>1.150629142695268e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1.339748654727529</v>
+        <v>4.489436929600243e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.7425554260812262</v>
+        <v>2.407940798792287e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.489436929600243e-07</v>
+        <v>-0.06466300174093983</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.407940798792287e-06</v>
+        <v>0.07261963346206689</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.06466300174093983</v>
+        <v>0.009451459356079432</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.07261963346206689</v>
+        <v>1.913611822481804</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.009451459356079432</v>
+        <v>2.305671185277149</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.919860761364591</v>
+        <v>4.537924021334489</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.305671185277149</v>
+        <v>2.148665352624363e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.537924021334489</v>
+        <v>776643771.3738173</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.148665352624363e-16</v>
+        <v>1.556644012401913e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>776643771.3738173</v>
+        <v>129.6022400707883</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.556644012401913e-07</v>
+        <v>0.0001427363791529724</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>129.6022400707883</v>
+        <v>7.838887394772286</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001427363791529724</v>
+        <v>1.425427165446011</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>7.838887394772286</v>
+        <v>0.008770887234248168</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.425427165446011</v>
+        <v>3.103911312171322</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.008770887234248168</v>
+        <v>0.9600242620312117</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.103911312171322</v>
+        <v>1.387901323512597</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9600242620312117</v>
+        <v>56</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.387901323512597</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.3504301738144782</v>
       </c>
     </row>
@@ -7015,72 +6799,66 @@
         <v>1.073866864746652e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1.346826461880002</v>
+        <v>4.206519205754667e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.7709391929227984</v>
+        <v>2.400739628433219e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.206519205754667e-07</v>
+        <v>-0.06482540182893366</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.400739628433219e-06</v>
+        <v>0.07413621835770796</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.06482540182893366</v>
+        <v>0.009694626805681972</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.07413621835770796</v>
+        <v>1.907066209085621</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.009694626805681972</v>
+        <v>2.297280032891582</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.915357000659603</v>
+        <v>4.478009316144135</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.297280032891582</v>
+        <v>2.20654727067005e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.478009316144135</v>
+        <v>719265228.6700587</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.20654727067005e-16</v>
+        <v>1.674144159678928e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>719265228.6700587</v>
+        <v>114.1540613357135</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.674144159678928e-07</v>
+        <v>0.0001551061204646399</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>114.1540613357135</v>
+        <v>8.268845067623143</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001551061204646399</v>
+        <v>1.545198465670246</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.268845067623143</v>
+        <v>0.01060519466590791</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.545198465670246</v>
+        <v>3.098991557878966</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01060519466590791</v>
+        <v>0.9613642034302959</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.098991557878966</v>
+        <v>1.415579826647676</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9613642034302959</v>
+        <v>18</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.415579826647676</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.3549215139663813</v>
       </c>
     </row>
@@ -7095,72 +6873,66 @@
         <v>1.001315391277618e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1.353039922767906</v>
+        <v>3.931178816413078e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.7954857765112111</v>
+        <v>2.394020999064711e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>3.931178816413078e-07</v>
+        <v>-0.06470735671234898</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.394020999064711e-06</v>
+        <v>0.07556737830409153</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.06470735671234898</v>
+        <v>0.009893277288318731</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.07556737830409153</v>
+        <v>1.895154053891476</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.009893277288318731</v>
+        <v>2.262730399460196</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.907337686143457</v>
+        <v>4.465879929351605</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.262730399460196</v>
+        <v>2.218549568769036e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.465879929351605</v>
+        <v>728190942.7462933</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.218549568769036e-16</v>
+        <v>1.651048809429696e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>728190942.7462933</v>
+        <v>117.6412640360366</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.651048809429696e-07</v>
+        <v>0.0001394992164057949</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>117.6412640360366</v>
+        <v>9.531961137925052</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001394992164057949</v>
+        <v>1.191876381598843</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.531961137925052</v>
+        <v>0.01267465930129627</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.191876381598843</v>
+        <v>3.022627804733185</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01267465930129627</v>
+        <v>0.9607539859250347</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.022627804733185</v>
+        <v>1.449594487560202</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9607539859250347</v>
+        <v>25</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.449594487560202</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.3649276231130786</v>
       </c>
     </row>
@@ -7537,7 +7309,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.328429807993694</v>
+        <v>1.355707837117041</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.601881060066495</v>
@@ -7626,7 +7398,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.312089056845005</v>
+        <v>1.333147299093013</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.566363593664209</v>
@@ -7715,7 +7487,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.311942400921039</v>
+        <v>1.326917004866838</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.487002416963658</v>
@@ -7804,7 +7576,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.495510420490491</v>
+        <v>1.516744374963477</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.770591371076143</v>
@@ -7893,7 +7665,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.615658167895206</v>
+        <v>1.611639258813901</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.135991577243434</v>
@@ -7982,7 +7754,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.668451587202464</v>
+        <v>1.647760514859556</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.036475454327805</v>
@@ -8071,7 +7843,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.699210532559721</v>
+        <v>1.685766820639489</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.853551102880923</v>
@@ -8160,7 +7932,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.666244331183729</v>
+        <v>1.655836310297357</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.408537505717293</v>
@@ -8249,7 +8021,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.685145574338209</v>
+        <v>1.668368368870618</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.457158500279023</v>
@@ -8338,7 +8110,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.693902191795558</v>
+        <v>1.680019590636079</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.41165664444213</v>
@@ -8427,7 +8199,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.701616971324923</v>
+        <v>1.687038450730465</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.642793490260252</v>
@@ -8516,7 +8288,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.706284270864453</v>
+        <v>1.692368722403577</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.56577178866854</v>
@@ -8605,7 +8377,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.714932149568253</v>
+        <v>1.696816919813328</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.609212505035</v>
@@ -8694,7 +8466,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.71316045030471</v>
+        <v>1.692911108663408</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.606713047814154</v>
@@ -8783,7 +8555,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.712669492117689</v>
+        <v>1.687869453526945</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.527556411794966</v>
@@ -8872,7 +8644,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.710192228028996</v>
+        <v>1.681183028310284</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.453476589466986</v>
@@ -8961,7 +8733,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.704019189879609</v>
+        <v>1.672353375981855</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.586002672634566</v>
@@ -9050,7 +8822,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.709526895295842</v>
+        <v>1.680640736396878</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.42256863876533</v>
@@ -9139,7 +8911,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.711169188730439</v>
+        <v>1.679040620831914</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.479922103106575</v>
@@ -9228,7 +9000,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.709864461936068</v>
+        <v>1.677595220983644</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.586573881333786</v>
@@ -9317,7 +9089,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.737488401178503</v>
+        <v>1.695961470010467</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.395408209420595</v>
@@ -9406,7 +9178,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.742246911766607</v>
+        <v>1.696524765574047</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.326582594365814</v>
@@ -9495,7 +9267,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.793940387623032</v>
+        <v>1.73467347406883</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.182266396342991</v>
@@ -9584,7 +9356,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.794170653117432</v>
+        <v>1.733270739903686</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.584479572877557</v>
@@ -9673,7 +9445,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.787617217579035</v>
+        <v>1.722953697200951</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.015315166318717</v>
@@ -9762,7 +9534,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.769276389451648</v>
+        <v>1.70933975601102</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.994625217096687</v>
@@ -9851,7 +9623,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.751430546024297</v>
+        <v>1.695269678400515</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.53654685708696</v>
@@ -9940,7 +9712,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.733662943428481</v>
+        <v>1.68405721728646</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.478828717139545</v>
@@ -10029,7 +9801,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.735341864026727</v>
+        <v>1.68962526026046</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.78045720150638</v>
@@ -10118,7 +9890,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.726008496912415</v>
+        <v>1.679591941989655</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.532562731151419</v>
@@ -10207,7 +9979,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.730540805524802</v>
+        <v>1.683772557601152</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.901101725003474</v>
@@ -10296,7 +10068,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.736467356972498</v>
+        <v>1.689661815376925</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.461330197227202</v>
@@ -10385,7 +10157,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.737056487904302</v>
+        <v>1.690179696511232</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.015828904378202</v>
@@ -10474,7 +10246,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.731003428032033</v>
+        <v>1.688579705843584</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.558557663854619</v>
@@ -10563,7 +10335,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.736562133869776</v>
+        <v>1.690873114401847</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.209633021979823</v>
@@ -10652,7 +10424,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.720400544676424</v>
+        <v>1.673996754296115</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.438057071693997</v>
@@ -10741,7 +10513,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.72116124227409</v>
+        <v>1.671184198526981</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.567463485968366</v>
@@ -10830,7 +10602,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.707054944584902</v>
+        <v>1.659304675562351</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.395376495828907</v>
@@ -10919,7 +10691,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.702480115640255</v>
+        <v>1.6555114301994</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.604789775984442</v>
@@ -11008,7 +10780,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.703261097028945</v>
+        <v>1.653513781424247</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.378425503605253</v>
@@ -11097,7 +10869,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.711762018898987</v>
+        <v>1.658030272203587</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.005825255432983</v>
@@ -11186,7 +10958,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.710554708349697</v>
+        <v>1.655757892985842</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.779184901384067</v>
@@ -11275,7 +11047,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.716941288727946</v>
+        <v>1.65945576512054</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.376100379195541</v>
@@ -11364,7 +11136,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.718727206795407</v>
+        <v>1.660395484647265</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.04451536806243</v>
@@ -11453,7 +11225,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.724453557433704</v>
+        <v>1.664024885185286</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.48902756847697</v>
@@ -11542,7 +11314,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.723143109503752</v>
+        <v>1.659174884620499</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.499846789794141</v>
@@ -11631,7 +11403,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.712423494009336</v>
+        <v>1.651657391676345</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.510591319703515</v>
@@ -11720,7 +11492,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.708620104465306</v>
+        <v>1.644691903015794</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.280993142513779</v>
@@ -11809,7 +11581,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.712955921852138</v>
+        <v>1.642576552226253</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.069747004102165</v>
@@ -11898,7 +11670,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.695346654727099</v>
+        <v>1.632190115432336</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.167065039413842</v>
@@ -11987,7 +11759,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.649077470490921</v>
+        <v>1.59513861066956</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.202173632821634</v>
@@ -12076,7 +11848,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.630796859729671</v>
+        <v>1.585702662962555</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.247121165462886</v>
@@ -12165,7 +11937,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.640727384828385</v>
+        <v>1.591816480581024</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.298653911220642</v>
@@ -12254,7 +12026,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.639133759244532</v>
+        <v>1.584771949995738</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.230304997982827</v>
@@ -12343,7 +12115,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.630259278816176</v>
+        <v>1.575870824628191</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.303272640187418</v>
@@ -12432,7 +12204,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.631057706969837</v>
+        <v>1.573151025090143</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.21881382884387</v>
@@ -12521,7 +12293,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.637016576570466</v>
+        <v>1.574254831163628</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.15127827834104</v>
@@ -12610,7 +12382,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.634485745998765</v>
+        <v>1.5704353257885</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.288046616663491</v>
@@ -12699,7 +12471,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.632934498398645</v>
+        <v>1.563608950237806</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.270649422399401</v>
@@ -12788,7 +12560,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.630858562323665</v>
+        <v>1.564814362905385</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.241185605623076</v>
@@ -12877,7 +12649,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.626934960408241</v>
+        <v>1.565503553393991</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.259168044597114</v>
@@ -12966,7 +12738,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.62967348988963</v>
+        <v>1.571957200754014</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.29966358826353</v>
@@ -13055,7 +12827,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.63528403388943</v>
+        <v>1.572566341986072</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.272088817633403</v>
@@ -13144,7 +12916,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.638554107641</v>
+        <v>1.576922290564436</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.250723824836885</v>
@@ -13233,7 +13005,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.652939075955593</v>
+        <v>1.590666706706232</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.249753120061477</v>
@@ -13322,7 +13094,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.730555567528169</v>
+        <v>1.650246827171757</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.711352140408525</v>
@@ -13411,7 +13183,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.728246461304841</v>
+        <v>1.646377104788243</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.993461149576897</v>
@@ -13500,7 +13272,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.727802115886934</v>
+        <v>1.642204342695054</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.216563845452311</v>
@@ -13589,7 +13361,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.720327653306493</v>
+        <v>1.639026145135477</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.446365846874628</v>
@@ -13678,7 +13450,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.716433726503491</v>
+        <v>1.633327015179441</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.65984488801586</v>
@@ -13767,7 +13539,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.714595540809576</v>
+        <v>1.639358293491853</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.772308190183379</v>
@@ -13856,7 +13628,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.708753976344307</v>
+        <v>1.63786113875855</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.020270132240517</v>
@@ -13945,7 +13717,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.701875257243564</v>
+        <v>1.633657394879172</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.881898866150849</v>
@@ -14034,7 +13806,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.694309034122835</v>
+        <v>1.632923384342846</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.525547654393857</v>
@@ -14123,7 +13895,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.696368478278567</v>
+        <v>1.633756734535192</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.743641458499758</v>
@@ -14212,7 +13984,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.687275356822184</v>
+        <v>1.625246309423712</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.512186040845498</v>
@@ -14301,7 +14073,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.676700315409066</v>
+        <v>1.614174444028903</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.72962487782244</v>
@@ -14390,7 +14162,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.669315445192642</v>
+        <v>1.611095248429089</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.352704141079661</v>
@@ -14479,7 +14251,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.663402880781068</v>
+        <v>1.60983182525626</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.164387749882386</v>
@@ -14568,7 +14340,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.622746967848969</v>
+        <v>1.594552265250746</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.431849160939174</v>
@@ -14657,7 +14429,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.639883640628509</v>
+        <v>1.617924946318701</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.492648943555047</v>
@@ -14943,7 +14715,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.370735100196669</v>
+        <v>1.36892607911492</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.170464843116165</v>
@@ -15032,7 +14804,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.371031531175742</v>
+        <v>1.368567974492951</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.041114420580513</v>
@@ -15121,7 +14893,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.384322215933178</v>
+        <v>1.386204047114288</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.130541954163504</v>
@@ -15210,7 +14982,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.390277743563044</v>
+        <v>1.390842230956388</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.06683088186905</v>
@@ -15299,7 +15071,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.407009222463491</v>
+        <v>1.406289459552452</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.040077138724354</v>
@@ -15388,7 +15160,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.43711913650596</v>
+        <v>1.436863146254135</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.00201833775891</v>
@@ -15477,7 +15249,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.429225115133296</v>
+        <v>1.432965973208524</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.993148181269325</v>
@@ -15566,7 +15338,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.416361707592279</v>
+        <v>1.424152192303933</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.01764118765793</v>
@@ -15655,7 +15427,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.41527076346734</v>
+        <v>1.419673155749049</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.962163971517782</v>
@@ -15744,7 +15516,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.424677185648964</v>
+        <v>1.431624786246788</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.036809332883641</v>
@@ -15833,7 +15605,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.489033062911235</v>
+        <v>1.488086634646553</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.18069543375023</v>
@@ -15922,7 +15694,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.494627352726385</v>
+        <v>1.492258190234984</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.282212911314406</v>
@@ -16011,7 +15783,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.490116103219763</v>
+        <v>1.483320371774348</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.278405710236935</v>
@@ -16100,7 +15872,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.451231586012162</v>
+        <v>1.43842393802929</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.106830344676857</v>
@@ -16189,7 +15961,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.477527408926844</v>
+        <v>1.463498972145481</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.155276141433844</v>
@@ -16278,7 +16050,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.48206136481532</v>
+        <v>1.462133323711789</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.147166298947166</v>
@@ -16367,7 +16139,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.484170850685772</v>
+        <v>1.465568756421118</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.084873436371409</v>
@@ -16456,7 +16228,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.473961873391377</v>
+        <v>1.456967743695049</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.205153378199765</v>
@@ -16545,7 +16317,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.48339683835075</v>
+        <v>1.463886094621215</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.142280961851962</v>
@@ -16634,7 +16406,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.485345067097128</v>
+        <v>1.464099414183322</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.112849891065455</v>
@@ -16723,7 +16495,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.457491664578101</v>
+        <v>1.44544989645075</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.086996569921014</v>
@@ -16812,7 +16584,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.468371615409195</v>
+        <v>1.453271443286173</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.150527310926174</v>
@@ -16901,7 +16673,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.471364985113532</v>
+        <v>1.456579536927236</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.073331301185823</v>
@@ -16990,7 +16762,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.487225157997369</v>
+        <v>1.470720559771462</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.084680100811184</v>
@@ -17079,7 +16851,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.477065460354272</v>
+        <v>1.461296501983762</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.187965106239359</v>
@@ -17168,7 +16940,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.46250741000744</v>
+        <v>1.440050193395996</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.897883301194078</v>
@@ -17257,7 +17029,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.38709869911215</v>
+        <v>1.378405829163961</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.852957228426656</v>
@@ -17346,7 +17118,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.390457395972111</v>
+        <v>1.386695417561582</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.854966613814452</v>
@@ -17435,7 +17207,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.414963652550229</v>
+        <v>1.412530685957435</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.843619400620524</v>
@@ -17524,7 +17296,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.402702819525782</v>
+        <v>1.407370450972492</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.833888061586276</v>
@@ -17613,7 +17385,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.404503181405986</v>
+        <v>1.411741251957427</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.845313333600707</v>
@@ -17702,7 +17474,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.404488094654483</v>
+        <v>1.412713169372534</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.835991105061319</v>
@@ -17791,7 +17563,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.40988651637235</v>
+        <v>1.414508056452778</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.857406501253723</v>
@@ -17880,7 +17652,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.414209982679192</v>
+        <v>1.420371077857683</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.826097205038738</v>
@@ -17969,7 +17741,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.430405802064994</v>
+        <v>1.434453399710016</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.830675606867277</v>
@@ -18058,7 +17830,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.441370518289398</v>
+        <v>1.445497052533745</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.84220471168037</v>
@@ -18147,7 +17919,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.440461831180425</v>
+        <v>1.44428556401351</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.815310795398831</v>
@@ -18236,7 +18008,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.445465030790226</v>
+        <v>1.447396522173035</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.834568120551568</v>
@@ -18325,7 +18097,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.441103608350481</v>
+        <v>1.441096192379638</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.810132146575822</v>
@@ -18414,7 +18186,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.451236838244384</v>
+        <v>1.448683189717387</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.7944400909852</v>
@@ -18503,7 +18275,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.506365882016413</v>
+        <v>1.4944294534825</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.65361223328092</v>
@@ -18592,7 +18364,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.57190462731034</v>
+        <v>1.557673244618349</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.484164766568591</v>
@@ -18681,7 +18453,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.579705908282065</v>
+        <v>1.564435139358854</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.840959665601128</v>
@@ -18770,7 +18542,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.604295576670987</v>
+        <v>1.5815309882445</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.35786096764778</v>
@@ -18859,7 +18631,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.603228926248932</v>
+        <v>1.572021094680268</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.026889223717316</v>
@@ -18948,7 +18720,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.614345518188065</v>
+        <v>1.578434805092433</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.006961431605136</v>
@@ -19037,7 +18809,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.600633676886761</v>
+        <v>1.568834265123178</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.25645112602971</v>
@@ -19126,7 +18898,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.594346150644762</v>
+        <v>1.563393496069684</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.002372642226389</v>
@@ -19215,7 +18987,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.593157329458679</v>
+        <v>1.559092325681665</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.196712655228276</v>
@@ -19304,7 +19076,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.599607353483927</v>
+        <v>1.568105453661228</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.902878857277514</v>
@@ -19393,7 +19165,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.587288972379825</v>
+        <v>1.557661488052499</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.947172142388506</v>
@@ -19482,7 +19254,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.580741603112844</v>
+        <v>1.55886672958075</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.138413310110638</v>
@@ -19571,7 +19343,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.593538522451553</v>
+        <v>1.564027753034436</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.835955994759989</v>
@@ -19660,7 +19432,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.598978035637788</v>
+        <v>1.567130173251952</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.000292164003141</v>
@@ -19749,7 +19521,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.602080320834219</v>
+        <v>1.571561921136874</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.198414763570943</v>
@@ -19838,7 +19610,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.594802599211277</v>
+        <v>1.561988478886911</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.008457306715698</v>
@@ -19927,7 +19699,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.58730723010037</v>
+        <v>1.550421824584722</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.642145391944994</v>
@@ -20016,7 +19788,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.553067509447381</v>
+        <v>1.519627054874354</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.666066045783202</v>
@@ -20105,7 +19877,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.56917067897728</v>
+        <v>1.538054484874389</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.377623871072557</v>
@@ -20194,7 +19966,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.562083319021194</v>
+        <v>1.53787282336377</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.749503274418725</v>
@@ -20283,7 +20055,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.537376635823378</v>
+        <v>1.509873178658716</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.748245910290238</v>
@@ -20372,7 +20144,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.530570607765386</v>
+        <v>1.5067531875754</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.539518955848754</v>
@@ -20461,7 +20233,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.543988019305651</v>
+        <v>1.516968531447328</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.563945482391831</v>
@@ -20550,7 +20322,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.54198957315767</v>
+        <v>1.514632016096154</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.647665933754224</v>
@@ -20639,7 +20411,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.522974806848872</v>
+        <v>1.497744436883554</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.7072161918981</v>
@@ -20728,7 +20500,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.537856600704298</v>
+        <v>1.507910037199203</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.584491426362614</v>
@@ -20817,7 +20589,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.539914866073413</v>
+        <v>1.508368455318485</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.654902278480824</v>
@@ -20906,7 +20678,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.535251123968954</v>
+        <v>1.506783398977551</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.711655235895566</v>
@@ -20995,7 +20767,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.445368061322228</v>
+        <v>1.433382239862263</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.891662249776352</v>
@@ -21084,7 +20856,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.436172724302581</v>
+        <v>1.427233848401634</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.911227755027973</v>
@@ -21173,7 +20945,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.442683603350286</v>
+        <v>1.431318969505532</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.919925679892662</v>
@@ -21262,7 +21034,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.446744271293676</v>
+        <v>1.436877990283204</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.932580384185284</v>
@@ -21351,7 +21123,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.471824683438145</v>
+        <v>1.460268513168596</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.91736461699625</v>
@@ -21440,7 +21212,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.455051559538063</v>
+        <v>1.443503124663381</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.87051230129287</v>
@@ -21529,7 +21301,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.44354861777495</v>
+        <v>1.423557794694455</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.918877825442591</v>
@@ -21618,7 +21390,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.444966656585186</v>
+        <v>1.432672800716579</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.931091841832317</v>
@@ -21707,7 +21479,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.441152736623831</v>
+        <v>1.427842415399926</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.895402624978451</v>
@@ -21796,7 +21568,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.424303537685021</v>
+        <v>1.418314115237786</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.867785656828897</v>
@@ -21885,7 +21657,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.421077957370782</v>
+        <v>1.417661167237194</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.868310415803746</v>
@@ -21974,7 +21746,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.418012099954621</v>
+        <v>1.411264496446012</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.928335672663962</v>
@@ -22063,7 +21835,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.415096062529715</v>
+        <v>1.41150816192018</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.934876308826675</v>
@@ -22349,7 +22121,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.485533045959686</v>
+        <v>1.522558905833703</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.171394477209985</v>
@@ -22438,7 +22210,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.490895791950948</v>
+        <v>1.522233788333356</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.142224096127439</v>
@@ -22527,7 +22299,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.48043142003068</v>
+        <v>1.507516177419032</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.015136813988705</v>
@@ -22616,7 +22388,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.454618780588502</v>
+        <v>1.480589762056949</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.041324177555732</v>
@@ -22705,7 +22477,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.446808105304881</v>
+        <v>1.452554857574774</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.896500223392501</v>
@@ -22794,7 +22566,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.450739078773839</v>
+        <v>1.445013797801414</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.915141153845567</v>
@@ -22883,7 +22655,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.464718779551947</v>
+        <v>1.467029985133955</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.961764778118563</v>
@@ -22972,7 +22744,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.463205465758703</v>
+        <v>1.470270109492221</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.98972077486231</v>
@@ -23061,7 +22833,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.480952770972281</v>
+        <v>1.485304733501052</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.874736418695637</v>
@@ -23150,7 +22922,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.475917078645588</v>
+        <v>1.477694696309537</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.947649806052679</v>
@@ -23239,7 +23011,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.512009244633674</v>
+        <v>1.508562438818643</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.8736108769569</v>
@@ -23328,7 +23100,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.548801631044017</v>
+        <v>1.54086546702785</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.563795624904532</v>
@@ -23417,7 +23189,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.554686308978742</v>
+        <v>1.542909332141491</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.387712469430021</v>
@@ -23506,7 +23278,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.548666340393722</v>
+        <v>1.533280701005239</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.570617980998109</v>
@@ -23595,7 +23367,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.568197757172957</v>
+        <v>1.547453224377992</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.682689133803995</v>
@@ -23684,7 +23456,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.554360261723197</v>
+        <v>1.530920834484356</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.674683705983917</v>
@@ -23773,7 +23545,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.560929890586937</v>
+        <v>1.537964207765127</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.551499415415735</v>
@@ -23862,7 +23634,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.580574707850284</v>
+        <v>1.555085456718606</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.501058305509031</v>
@@ -23951,7 +23723,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.584951123573601</v>
+        <v>1.55838055754476</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.765061802919708</v>
@@ -24040,7 +23812,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554793748415974</v>
+        <v>1.536212117252792</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.62908498610809</v>
@@ -24129,7 +23901,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.579576849024735</v>
+        <v>1.5591015939398</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.552602695419278</v>
@@ -24218,7 +23990,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575058599491869</v>
+        <v>1.553615155023769</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.846607147261406</v>
@@ -24307,7 +24079,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.575139894182118</v>
+        <v>1.547438849527756</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.673049966081832</v>
@@ -24396,7 +24168,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.575289730719459</v>
+        <v>1.547102205488472</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.883003333081828</v>
@@ -24485,7 +24257,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573883478814477</v>
+        <v>1.54432350990473</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.74857451490027</v>
@@ -24574,7 +24346,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.568206082027354</v>
+        <v>1.540739046435465</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.737001003704244</v>
@@ -24663,7 +24435,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.550113650537926</v>
+        <v>1.525355627860254</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.65077749589443</v>
@@ -24752,7 +24524,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.542600238192002</v>
+        <v>1.521971027604758</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.317638923281922</v>
@@ -24841,7 +24613,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.539099912836123</v>
+        <v>1.52198350463156</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.608258713422745</v>
@@ -24930,7 +24702,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.530398486380868</v>
+        <v>1.514882743505688</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.715083999056823</v>
@@ -25019,7 +24791,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.54010731890271</v>
+        <v>1.524584425212952</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.605612956769498</v>
@@ -25108,7 +24880,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.5278095608406</v>
+        <v>1.513941101135369</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.550341253126547</v>
@@ -25197,7 +24969,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.506055193995014</v>
+        <v>1.498372778780943</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.499258200617482</v>
@@ -25286,7 +25058,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.513485218471558</v>
+        <v>1.506464388307891</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.484781235292413</v>
@@ -25375,7 +25147,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.544479693127518</v>
+        <v>1.52930074605151</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.575086868612134</v>
@@ -25464,7 +25236,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.528720512780876</v>
+        <v>1.507462857251215</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.723790545003182</v>
@@ -25553,7 +25325,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.525500590598167</v>
+        <v>1.503549327027168</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.728686344118539</v>
@@ -25642,7 +25414,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.519003291229387</v>
+        <v>1.49970300190369</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.749808016771002</v>
@@ -25731,7 +25503,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.521687382053158</v>
+        <v>1.50083432765364</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.552750012988086</v>
@@ -25820,7 +25592,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.544150977966782</v>
+        <v>1.517331575530739</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.728695833778887</v>
@@ -25909,7 +25681,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.556153700893097</v>
+        <v>1.52741791268672</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.579227188835969</v>
@@ -25998,7 +25770,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.556170894086622</v>
+        <v>1.527156251084566</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.753268047990228</v>
@@ -26087,7 +25859,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.570234123568256</v>
+        <v>1.538328469776131</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.59007462091755</v>
@@ -26176,7 +25948,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.575199981532238</v>
+        <v>1.540140964928547</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.671136458791743</v>
@@ -26265,7 +26037,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.563157036543163</v>
+        <v>1.521430617425637</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.758865906201892</v>
@@ -26354,7 +26126,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.546913149819535</v>
+        <v>1.504948333250862</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.672135733221818</v>
@@ -26443,7 +26215,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.5439513655822</v>
+        <v>1.501338034075557</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.786785604776107</v>
@@ -26532,7 +26304,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.562313117396584</v>
+        <v>1.514338615444467</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.960094487441685</v>
@@ -26621,7 +26393,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.547486468401102</v>
+        <v>1.495086758599734</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.866695305819678</v>
@@ -26710,7 +26482,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.54461558025307</v>
+        <v>1.493076974023273</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.74200113580175</v>
@@ -26799,7 +26571,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.54643491912941</v>
+        <v>1.50082014576817</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.677940245969609</v>
@@ -26888,7 +26660,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.534609707784203</v>
+        <v>1.491638350797565</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.898963901596305</v>
@@ -26977,7 +26749,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.54171052137005</v>
+        <v>1.497798764273425</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.946593731839199</v>
@@ -27066,7 +26838,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.524837898886948</v>
+        <v>1.480913598208612</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.780846588335333</v>
@@ -27155,7 +26927,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.527021772226478</v>
+        <v>1.48430195823839</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.872785072532558</v>
@@ -27244,7 +27016,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.520083768295942</v>
+        <v>1.479076421645271</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.756996911832724</v>
@@ -27333,7 +27105,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.511574427448556</v>
+        <v>1.466565303349967</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.751827674485841</v>
@@ -27422,7 +27194,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.508601379759507</v>
+        <v>1.462748756836424</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.796063781586497</v>
@@ -27511,7 +27283,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.510515159872037</v>
+        <v>1.468322758528221</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.66133612506135</v>
@@ -27600,7 +27372,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.498276870508277</v>
+        <v>1.465215553434445</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.59012455140443</v>
@@ -27689,7 +27461,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.518308492171304</v>
+        <v>1.487759047469029</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.512321865847733</v>
@@ -27778,7 +27550,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.525870116244319</v>
+        <v>1.492264469751501</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.734715372560852</v>
@@ -27867,7 +27639,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.52787659759133</v>
+        <v>1.492569175600732</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.586291293559259</v>
@@ -27956,7 +27728,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.541856740711119</v>
+        <v>1.502988179416416</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.692220262638741</v>
@@ -28045,7 +27817,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.515087338384334</v>
+        <v>1.481126492082639</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.517481685804918</v>
@@ -28134,7 +27906,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.51933495181151</v>
+        <v>1.487343778274449</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.636321127975103</v>
@@ -28223,7 +27995,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.528270563445465</v>
+        <v>1.492875256147884</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.575830888418372</v>
@@ -28312,7 +28084,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.541080337289778</v>
+        <v>1.502174366279774</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.645765337494193</v>
@@ -28401,7 +28173,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.543853019129899</v>
+        <v>1.506738736595955</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.567686222751144</v>
@@ -28490,7 +28262,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.529511242852062</v>
+        <v>1.496392719821178</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.55271724644234</v>
@@ -28579,7 +28351,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.525858012591138</v>
+        <v>1.491105945042875</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.652106682419542</v>
@@ -28668,7 +28440,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.523979336452309</v>
+        <v>1.490037533975128</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.589401987610877</v>
@@ -28757,7 +28529,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.51896510120614</v>
+        <v>1.490326101830129</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.597306622704926</v>
@@ -28846,7 +28618,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.515674071033003</v>
+        <v>1.482059721892803</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.552450048337522</v>
@@ -28935,7 +28707,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.521814896834856</v>
+        <v>1.490121862945435</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.616336653628156</v>
@@ -29024,7 +28796,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.517211177066954</v>
+        <v>1.486648099790366</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.73554644037173</v>
@@ -29113,7 +28885,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.521646908718141</v>
+        <v>1.491095740341196</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.520506424830395</v>
@@ -29202,7 +28974,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.533302244962799</v>
+        <v>1.500249904748577</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.636843843039541</v>
@@ -29291,7 +29063,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.521241562795212</v>
+        <v>1.498637811940032</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.641456592809572</v>
@@ -29380,7 +29152,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.54868664793996</v>
+        <v>1.525640736513031</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.705799130863778</v>
@@ -29469,7 +29241,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.544476898079584</v>
+        <v>1.525116021552038</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.712032756750905</v>
@@ -29755,7 +29527,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.532387116346321</v>
+        <v>1.518620112520932</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.279865642347108</v>
@@ -29844,7 +29616,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.533612760586122</v>
+        <v>1.516396620991616</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.251857958854613</v>
@@ -29933,7 +29705,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.537605200928359</v>
+        <v>1.514223638944481</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.043062176601982</v>
@@ -30022,7 +29794,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.544846590879371</v>
+        <v>1.52689311814919</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.047219020415455</v>
@@ -30111,7 +29883,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.512081064530988</v>
+        <v>1.487485858986444</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.970593466607636</v>
@@ -30200,7 +29972,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.591896511645229</v>
+        <v>1.560833753356142</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.130405967549186</v>
@@ -30289,7 +30061,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.650665247215328</v>
+        <v>1.631454354586095</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.715029287139593</v>
@@ -30378,7 +30150,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.647175449280368</v>
+        <v>1.62225708315763</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.045993216480329</v>
@@ -30467,7 +30239,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.658003821799047</v>
+        <v>1.637378022674245</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.225725902764563</v>
@@ -30556,7 +30328,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.667364975970691</v>
+        <v>1.640959507615201</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.966930209653016</v>
@@ -30645,7 +30417,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.682366287159718</v>
+        <v>1.659765996843387</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.682286203003742</v>
@@ -30734,7 +30506,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.685029347606052</v>
+        <v>1.661387749736423</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.885440060915123</v>
@@ -30823,7 +30595,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.693407361705709</v>
+        <v>1.667369792679248</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.985049837419553</v>
@@ -30912,7 +30684,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.708370482737112</v>
+        <v>1.672681949882636</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.159374764394434</v>
@@ -31001,7 +30773,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.71520365142243</v>
+        <v>1.677719444582936</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.358161381701032</v>
@@ -31090,7 +30862,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.711928962157153</v>
+        <v>1.676588058254646</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.365596403109722</v>
@@ -31179,7 +30951,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.709437870564155</v>
+        <v>1.669725995987436</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.196033842310147</v>
@@ -31268,7 +31040,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.711537926865956</v>
+        <v>1.672051466851135</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.021609153101772</v>
@@ -31357,7 +31129,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.717236358112785</v>
+        <v>1.675654045885451</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.315252900737386</v>
@@ -31446,7 +31218,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.706912156915056</v>
+        <v>1.665760826955367</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.234145167228353</v>
@@ -31535,7 +31307,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.706628384045751</v>
+        <v>1.662913957498635</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.029908588259178</v>
@@ -31624,7 +31396,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.70383724862945</v>
+        <v>1.6658217195648</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.099205937221038</v>
@@ -31713,7 +31485,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.723433115489041</v>
+        <v>1.690054916356976</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.767469436400768</v>
@@ -31802,7 +31574,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.732864853806956</v>
+        <v>1.697073862415837</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.854153382786338</v>
@@ -31891,7 +31663,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.724098844640276</v>
+        <v>1.68944011515336</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.465900184670494</v>
@@ -31980,7 +31752,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.716701419741313</v>
+        <v>1.680121911507876</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.481291407173809</v>
@@ -32069,7 +31841,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.717815559173026</v>
+        <v>1.680308360285788</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.781214645661851</v>
@@ -32158,7 +31930,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.711661940543146</v>
+        <v>1.675360013374685</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.651517484154148</v>
@@ -32247,7 +32019,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.710624783365166</v>
+        <v>1.677091724883357</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.530340464378419</v>
@@ -32336,7 +32108,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.706060721283915</v>
+        <v>1.672915777708771</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.182397587217316</v>
@@ -32425,7 +32197,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.713594918727757</v>
+        <v>1.677436291824991</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.173599165083395</v>
@@ -32514,7 +32286,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.717558088751804</v>
+        <v>1.684484401780743</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.863508313569218</v>
@@ -32603,7 +32375,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.719498002315433</v>
+        <v>1.680335268690508</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.721190681983572</v>
@@ -32692,7 +32464,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.708299491239502</v>
+        <v>1.6622884044298</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.795765248900727</v>
@@ -32781,7 +32553,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.716664415837214</v>
+        <v>1.664840378673205</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.926762563523231</v>
@@ -32870,7 +32642,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.716537589676473</v>
+        <v>1.667466436033723</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.057272028190908</v>
@@ -32959,7 +32731,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.704690907716937</v>
+        <v>1.655067139888193</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.12872492558416</v>
@@ -33048,7 +32820,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.688008377190029</v>
+        <v>1.634490468599107</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.546393032716953</v>
@@ -33137,7 +32909,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.675768367286132</v>
+        <v>1.623621008667274</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.087706070895708</v>
@@ -33226,7 +32998,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.669049948085324</v>
+        <v>1.623764361913885</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.371334663368945</v>
@@ -33315,7 +33087,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.677776057833378</v>
+        <v>1.623618285947476</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.870861180768378</v>
@@ -33404,7 +33176,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647721048584164</v>
+        <v>1.603633651876951</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.957229673310217</v>
@@ -33493,7 +33265,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.62716528929127</v>
+        <v>1.590187810127085</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.949637109697238</v>
@@ -33582,7 +33354,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.607828719595137</v>
+        <v>1.57663032085369</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.976434107045891</v>
@@ -33671,7 +33443,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.601029059445883</v>
+        <v>1.567106582210966</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.810308071131703</v>
@@ -33760,7 +33532,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.59303894091847</v>
+        <v>1.563307254978552</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.961994430845332</v>
@@ -33849,7 +33621,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.580361163148835</v>
+        <v>1.555594322979303</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.019826709153685</v>
@@ -33938,7 +33710,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.570057479266227</v>
+        <v>1.551300207665126</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.713852455244382</v>
@@ -34027,7 +33799,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.575264909224514</v>
+        <v>1.557191967439491</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.783666205212479</v>
@@ -34116,7 +33888,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.56856194439456</v>
+        <v>1.551642217596333</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.040746552035881</v>
@@ -34205,7 +33977,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.562282645987454</v>
+        <v>1.547076483133213</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.092691048525126</v>
@@ -34294,7 +34066,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.571012463505315</v>
+        <v>1.556064979499648</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.045993583885289</v>
@@ -34383,7 +34155,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.569767178952641</v>
+        <v>1.552609626471417</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.028816847417209</v>
@@ -34472,7 +34244,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.570380906998977</v>
+        <v>1.55435245929344</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.037360409090594</v>
@@ -34561,7 +34333,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.572142207726134</v>
+        <v>1.55388384860405</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.871160208711131</v>
@@ -34650,7 +34422,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.574429114046619</v>
+        <v>1.560815001808181</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.91548524124114</v>
@@ -34739,7 +34511,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.59387136845185</v>
+        <v>1.576967461371861</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.173238071954703</v>
@@ -34828,7 +34600,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.611471335850645</v>
+        <v>1.589888697701006</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.361507890482386</v>
@@ -34917,7 +34689,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.623991024895608</v>
+        <v>1.596453365524413</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.497458936904067</v>
@@ -35006,7 +34778,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.626256485896167</v>
+        <v>1.593832644040906</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.036152315465478</v>
@@ -35095,7 +34867,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.626560281853082</v>
+        <v>1.592566726357355</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.503213085749462</v>
@@ -35184,7 +34956,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.634187011728464</v>
+        <v>1.598562092849087</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.339952910530047</v>
@@ -35273,7 +35045,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.649152140010151</v>
+        <v>1.601265150668469</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.388449471956235</v>
@@ -35362,7 +35134,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.636449246269119</v>
+        <v>1.589285455007033</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.208164960945835</v>
@@ -35451,7 +35223,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.645589908310564</v>
+        <v>1.596924843242976</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.920723963330487</v>
@@ -35540,7 +35312,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.645689068893292</v>
+        <v>1.594628254403093</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.235720467441558</v>
@@ -35629,7 +35401,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.649412541580052</v>
+        <v>1.597736819166965</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.312952400671478</v>
@@ -35718,7 +35490,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.658543797133749</v>
+        <v>1.603581823245031</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.176287861080747</v>
@@ -35807,7 +35579,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.649489641245474</v>
+        <v>1.590018329780853</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.11348050206281</v>
@@ -35896,7 +35668,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.651057068728369</v>
+        <v>1.595282552022221</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.461310985639575</v>
@@ -35985,7 +35757,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.643999104210088</v>
+        <v>1.587537133437397</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.5325277688716</v>
@@ -36074,7 +35846,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.635121555272056</v>
+        <v>1.57860341381378</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.289646790621104</v>
@@ -36163,7 +35935,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.62530514669387</v>
+        <v>1.565341310224479</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.123965851985761</v>
@@ -36252,7 +36024,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.598153426911139</v>
+        <v>1.545072507201283</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.846793067679645</v>
@@ -36341,7 +36113,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.591812462183767</v>
+        <v>1.536558720321052</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.946861147324969</v>
@@ -36430,7 +36202,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.585938578674607</v>
+        <v>1.533323694985628</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.748655518898032</v>
@@ -36519,7 +36291,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.591267874478085</v>
+        <v>1.536445581642624</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.991944727492255</v>
@@ -36608,7 +36380,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.592458112211262</v>
+        <v>1.53968284995208</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.984398522943773</v>
@@ -36697,7 +36469,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.596027490020571</v>
+        <v>1.547962029020106</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.953164815325474</v>
@@ -36786,7 +36558,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.614432979411455</v>
+        <v>1.56677455785782</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.012166398277519</v>
@@ -36875,7 +36647,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.62929850910168</v>
+        <v>1.586902504856181</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.028338721711465</v>
@@ -37161,7 +36933,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.46621864621006</v>
+        <v>1.499083777849823</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.551980611642313</v>
@@ -37250,7 +37022,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.445615712757486</v>
+        <v>1.476563247069188</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.468352326619142</v>
@@ -37339,7 +37111,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.449005872537033</v>
+        <v>1.476882286505962</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.235699185133798</v>
@@ -37428,7 +37200,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.440368439795114</v>
+        <v>1.457129766005699</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.288477396111664</v>
@@ -37517,7 +37289,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.371982070543169</v>
+        <v>1.375782707946659</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.317101478978473</v>
@@ -37606,7 +37378,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.354669979197626</v>
+        <v>1.350388845330861</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.21768361917926</v>
@@ -37695,7 +37467,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.363774001667848</v>
+        <v>1.359999514655823</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.183711123079045</v>
@@ -37784,7 +37556,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.347033757136729</v>
+        <v>1.342229049677107</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.096990267946599</v>
@@ -37873,7 +37645,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.342945545337448</v>
+        <v>1.343496113600053</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.219505690870894</v>
@@ -37962,7 +37734,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.358869096237205</v>
+        <v>1.358190331686001</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.250696200413039</v>
@@ -38051,7 +37823,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.348472182862194</v>
+        <v>1.354848808588059</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.307621822930976</v>
@@ -38140,7 +37912,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.357195715046753</v>
+        <v>1.361077670375362</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.183280466826643</v>
@@ -38229,7 +38001,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.343081741648283</v>
+        <v>1.345080509538267</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.159532536965456</v>
@@ -38318,7 +38090,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.342724224335736</v>
+        <v>1.346217300537267</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.18976562062364</v>
@@ -38407,7 +38179,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.372378048692429</v>
+        <v>1.376607871107147</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.276666374286008</v>
@@ -38496,7 +38268,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.358623705686801</v>
+        <v>1.360928842041423</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.152756375325553</v>
@@ -38585,7 +38357,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.36450127272331</v>
+        <v>1.365131307584215</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.159473104255181</v>
@@ -38674,7 +38446,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.351666514341706</v>
+        <v>1.35232159136969</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.219938975061468</v>
@@ -38763,7 +38535,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.34183218237288</v>
+        <v>1.344262609852841</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.230645535385216</v>
@@ -38852,7 +38624,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.349228468266923</v>
+        <v>1.350708465968572</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.137102098862625</v>
@@ -38941,7 +38713,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.361670945130315</v>
+        <v>1.360823356080564</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.250917573873011</v>
@@ -39030,7 +38802,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.373991901345765</v>
+        <v>1.37461093933059</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.066065788831425</v>
@@ -39119,7 +38891,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.395488025281656</v>
+        <v>1.401237334831041</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.010288861438512</v>
@@ -39208,7 +38980,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.396308184814644</v>
+        <v>1.40182587239065</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.141748454494239</v>
@@ -39297,7 +39069,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.405699765189307</v>
+        <v>1.404510782398882</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.119253360233727</v>
@@ -39386,7 +39158,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.407858233428868</v>
+        <v>1.408673872765623</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.174563275313948</v>
@@ -39475,7 +39247,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.411992261984498</v>
+        <v>1.412803186548864</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.244613513374266</v>
@@ -39564,7 +39336,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.429735373389382</v>
+        <v>1.428857427287778</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.176339624024647</v>
@@ -39653,7 +39425,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.428777356697075</v>
+        <v>1.425666695379709</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.187295245307947</v>
@@ -39742,7 +39514,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.429190772216507</v>
+        <v>1.429012127670201</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.328056523067984</v>
@@ -39831,7 +39603,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.459307147246776</v>
+        <v>1.45663396113962</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.454134910972766</v>
@@ -39920,7 +39692,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.469408675789188</v>
+        <v>1.466943307251241</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.383072189609575</v>
@@ -40009,7 +39781,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.503642913414256</v>
+        <v>1.499474976744291</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.238521903794919</v>
@@ -40098,7 +39870,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.522743742441887</v>
+        <v>1.512851493516139</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.557360959890098</v>
@@ -40187,7 +39959,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.479839879218657</v>
+        <v>1.477427844694208</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.183774260943736</v>
@@ -40276,7 +40048,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.453850449306798</v>
+        <v>1.45100767160943</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.282227657394003</v>
@@ -40365,7 +40137,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.460450893966865</v>
+        <v>1.460389494394261</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.314528152764042</v>
@@ -40454,7 +40226,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.462290355749518</v>
+        <v>1.460250312971164</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.293124593345429</v>
@@ -40543,7 +40315,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.435440667481266</v>
+        <v>1.435515044487519</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.181747167177993</v>
@@ -40632,7 +40404,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.423405703069583</v>
+        <v>1.428552909783566</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.342750348252686</v>
@@ -40721,7 +40493,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.419362185847335</v>
+        <v>1.421026304927578</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.166113025641618</v>
@@ -40810,7 +40582,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.394607694503941</v>
+        <v>1.396120845831826</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.215006689819327</v>
@@ -40899,7 +40671,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.397291337558238</v>
+        <v>1.401264511539556</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.263610096026945</v>
@@ -40988,7 +40760,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.384575310647628</v>
+        <v>1.390263921988745</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.407036885248698</v>
@@ -41077,7 +40849,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.36776275854958</v>
+        <v>1.372646816348507</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.331701540152118</v>
@@ -41166,7 +40938,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.351089115222343</v>
+        <v>1.355093809919544</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.267245517782784</v>
@@ -41255,7 +41027,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.32744359427905</v>
+        <v>1.335180679409969</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.310914702251324</v>
@@ -41344,7 +41116,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.319962011429344</v>
+        <v>1.328163899453175</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.26384150156151</v>
@@ -41433,7 +41205,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.325670642285199</v>
+        <v>1.330401534554593</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.092908362381485</v>
@@ -41522,7 +41294,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.324515200994971</v>
+        <v>1.330335407268531</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.358860077476373</v>
@@ -41611,7 +41383,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.333350502482229</v>
+        <v>1.341076139895453</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.3101480293487</v>
@@ -41700,7 +41472,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.331011478538555</v>
+        <v>1.336381962216385</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.309587036250404</v>
@@ -41789,7 +41561,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.315890860836667</v>
+        <v>1.322259853607343</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.137987691782254</v>
@@ -41878,7 +41650,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.333001685833985</v>
+        <v>1.336576870461927</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.174911966653313</v>
@@ -41967,7 +41739,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.319930027036917</v>
+        <v>1.322404089328683</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.487265551836721</v>
@@ -42056,7 +41828,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.331984616867005</v>
+        <v>1.337043142392029</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.294936899129419</v>
@@ -42145,7 +41917,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.33183239477019</v>
+        <v>1.337737361136689</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.337887810562064</v>
@@ -42234,7 +42006,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.335287442143956</v>
+        <v>1.338152050791148</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.353842758235089</v>
@@ -42323,7 +42095,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.358823490669361</v>
+        <v>1.363933203042192</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.411237315208437</v>
@@ -42412,7 +42184,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.35390057248008</v>
+        <v>1.357383259207515</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.275169527181695</v>
@@ -42501,7 +42273,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.351163255591777</v>
+        <v>1.35445630543656</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.328050615137455</v>
@@ -42590,7 +42362,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.354917724404189</v>
+        <v>1.357727056250852</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.372817372947531</v>
@@ -42679,7 +42451,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.352184529740001</v>
+        <v>1.350154846321649</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.311647473765362</v>
@@ -42768,7 +42540,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.349669087737069</v>
+        <v>1.350215338654757</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.185865859326077</v>
@@ -42857,7 +42629,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.367920993355743</v>
+        <v>1.368267176059999</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.089326467426794</v>
@@ -42946,7 +42718,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.374906161305118</v>
+        <v>1.372580815004432</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.161110726232756</v>
@@ -43035,7 +42807,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.381818095302827</v>
+        <v>1.377687590743397</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.217600610735583</v>
@@ -43124,7 +42896,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.39919951395418</v>
+        <v>1.39383579423117</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.268653554087871</v>
@@ -43213,7 +42985,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.402649098528507</v>
+        <v>1.393840233402261</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.197672554782173</v>
@@ -43302,7 +43074,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.430483673247264</v>
+        <v>1.418378340433714</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.137028500980763</v>
@@ -43391,7 +43163,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.462813623198984</v>
+        <v>1.446119688174874</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.081603233403774</v>
@@ -43480,7 +43252,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.46415025522591</v>
+        <v>1.443793135075142</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.194547234011636</v>
@@ -43569,7 +43341,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.436030711202921</v>
+        <v>1.420539258476387</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.230265506643542</v>
@@ -43658,7 +43430,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.416288462055526</v>
+        <v>1.394639356154797</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.236569649271882</v>
@@ -43747,7 +43519,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.423295164902247</v>
+        <v>1.401449479153297</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.117572512627623</v>
@@ -43836,7 +43608,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.436872119202675</v>
+        <v>1.415980904201609</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.091626955604253</v>
@@ -43925,7 +43697,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.448270580201664</v>
+        <v>1.428234612842498</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.246773059893297</v>
@@ -44014,7 +43786,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.474846069135391</v>
+        <v>1.455877117718205</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.368996586418845</v>
@@ -44103,7 +43875,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.454741216876559</v>
+        <v>1.440222430226193</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.320721714012093</v>
@@ -44192,7 +43964,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.44780248279156</v>
+        <v>1.443346342819102</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.316687604019994</v>
@@ -44281,7 +44053,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.459935668946491</v>
+        <v>1.462221644726798</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.337839151308251</v>
@@ -44567,7 +44339,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.614734026369513</v>
+        <v>1.624843937858495</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.448157679066723</v>
@@ -44656,7 +44428,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.62365263481774</v>
+        <v>1.633263858119586</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.372310067748503</v>
@@ -44745,7 +44517,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.615354105943472</v>
+        <v>1.621855051933553</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.161425195471435</v>
@@ -44834,7 +44606,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.587506945281196</v>
+        <v>1.587682101340606</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.292202089855457</v>
@@ -44923,7 +44695,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.520999242731297</v>
+        <v>1.50821086280465</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.214819306921221</v>
@@ -45012,7 +44784,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.516843019828378</v>
+        <v>1.487371662719325</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.784758245697939</v>
@@ -45101,7 +44873,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.585350097625587</v>
+        <v>1.565315700252456</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.473847200729804</v>
@@ -45190,7 +44962,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.5973183028117</v>
+        <v>1.583300629434919</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.483962330359112</v>
@@ -45279,7 +45051,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.640379448963796</v>
+        <v>1.622661078402163</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.739526382797082</v>
@@ -45368,7 +45140,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.6615582638735</v>
+        <v>1.634476481005991</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.642080600526989</v>
@@ -45457,7 +45229,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.669871337441032</v>
+        <v>1.645956308228592</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.825779846084327</v>
@@ -45546,7 +45318,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.652718666021466</v>
+        <v>1.630709192722837</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.903659213189334</v>
@@ -45635,7 +45407,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.666648228042306</v>
+        <v>1.641389134008022</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.925168362615942</v>
@@ -45724,7 +45496,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.66432407121316</v>
+        <v>1.636855957597046</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.743511671370688</v>
@@ -45813,7 +45585,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.662431175963878</v>
+        <v>1.635596470071016</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.852143180551503</v>
@@ -45902,7 +45674,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.666955949665864</v>
+        <v>1.638795152980642</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.902748999643154</v>
@@ -45991,7 +45763,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.68948510043558</v>
+        <v>1.648261285607558</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.870243766602064</v>
@@ -46080,7 +45852,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.687946360593158</v>
+        <v>1.641736124948838</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.873533948362304</v>
@@ -46169,7 +45941,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.691220442837298</v>
+        <v>1.643167634775485</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.918181712723697</v>
@@ -46258,7 +46030,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.692168975904532</v>
+        <v>1.643612359500828</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.906089579627542</v>
@@ -46347,7 +46119,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.71692445559986</v>
+        <v>1.669492493210581</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.516941444616559</v>
@@ -46436,7 +46208,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.691546288765004</v>
+        <v>1.641963840355922</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.645617449837917</v>
@@ -46525,7 +46297,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.689835727159453</v>
+        <v>1.627469366593488</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.540547415841108</v>
@@ -46614,7 +46386,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.680163735565527</v>
+        <v>1.61854219105146</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.776534100899059</v>
@@ -46703,7 +46475,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.677644163917946</v>
+        <v>1.620475055859887</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.596516083909996</v>
@@ -46792,7 +46564,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.662507663582579</v>
+        <v>1.608882340030178</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.761917422334435</v>
@@ -46881,7 +46653,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.679498442871112</v>
+        <v>1.620293754462115</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.231219081973503</v>
@@ -46970,7 +46742,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.667731951219072</v>
+        <v>1.613309168842473</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.560097334145976</v>
@@ -47059,7 +46831,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.670586857666192</v>
+        <v>1.618721629620591</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.62456426676776</v>
@@ -47148,7 +46920,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.67297162616953</v>
+        <v>1.622893516551127</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.016983552298767</v>
@@ -47237,7 +47009,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.681366314537894</v>
+        <v>1.631160359152268</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.490999254816862</v>
@@ -47326,7 +47098,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.674163453540831</v>
+        <v>1.630076048562353</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.435951257380905</v>
@@ -47415,7 +47187,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.654684176131662</v>
+        <v>1.616612125777061</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.155831511850822</v>
@@ -47504,7 +47276,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.649604406104626</v>
+        <v>1.61447599969003</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.458766631273083</v>
@@ -47593,7 +47365,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.65054836378364</v>
+        <v>1.609600754232165</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.476307261272417</v>
@@ -47682,7 +47454,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.642386492603872</v>
+        <v>1.602216393973198</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.404765365815798</v>
@@ -47771,7 +47543,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.647261780360475</v>
+        <v>1.603244854072971</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.357850718795194</v>
@@ -47860,7 +47632,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.641899001843046</v>
+        <v>1.600139288331005</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.142161676550509</v>
@@ -47949,7 +47721,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.647924159571879</v>
+        <v>1.603275781116602</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.523702744962546</v>
@@ -48038,7 +47810,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.639766507876302</v>
+        <v>1.598729352439606</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.094140196496702</v>
@@ -48127,7 +47899,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.657515469467174</v>
+        <v>1.608743179900797</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.923351143217268</v>
@@ -48216,7 +47988,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.656442245649049</v>
+        <v>1.607919417742161</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.476615853611706</v>
@@ -48305,7 +48077,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.657988093448587</v>
+        <v>1.609967546631084</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.41761885618362</v>
@@ -48394,7 +48166,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.663994721585422</v>
+        <v>1.616839861246338</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.227694437154953</v>
@@ -48483,7 +48255,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.647776517543037</v>
+        <v>1.599042055735341</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.253717218925407</v>
@@ -48572,7 +48344,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.639141477560415</v>
+        <v>1.589393020249544</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.46749279647551</v>
@@ -48661,7 +48433,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.643451216490028</v>
+        <v>1.597989452297047</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.187535202267403</v>
@@ -48750,7 +48522,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.649205146491561</v>
+        <v>1.602312974546257</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.085788402601811</v>
@@ -48839,7 +48611,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.633916574942829</v>
+        <v>1.58925157604542</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.294822192837733</v>
@@ -48928,7 +48700,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.626970730549946</v>
+        <v>1.580149233354378</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.131806715625653</v>
@@ -49017,7 +48789,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.618540689095882</v>
+        <v>1.575620737674225</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.923483325611556</v>
@@ -49106,7 +48878,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.608670200761072</v>
+        <v>1.569699323449126</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.092481585101702</v>
@@ -49195,7 +48967,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.620240697081171</v>
+        <v>1.573510776722973</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.97139007473453</v>
@@ -49284,7 +49056,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.619873566170699</v>
+        <v>1.574677757312277</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.897904094630082</v>
@@ -49373,7 +49145,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.62379584675837</v>
+        <v>1.578706797989528</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.11026745541809</v>
@@ -49462,7 +49234,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.61743814941402</v>
+        <v>1.572537918109906</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.043624731818801</v>
@@ -49551,7 +49323,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.609008173218989</v>
+        <v>1.562291511483235</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.943068321755838</v>
@@ -49640,7 +49412,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.60790861009411</v>
+        <v>1.553623712019034</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.114330647798367</v>
@@ -49729,7 +49501,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.616527952561173</v>
+        <v>1.557545634021375</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.612899484843375</v>
@@ -49818,7 +49590,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.622763034101</v>
+        <v>1.562635966492079</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.802667324027122</v>
@@ -49907,7 +49679,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.615310644439656</v>
+        <v>1.561180152782917</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.963870041715636</v>
@@ -49996,7 +49768,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.607610402285751</v>
+        <v>1.55548991428003</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.155125050310948</v>
@@ -50085,7 +49857,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.63399263161247</v>
+        <v>1.576733120391707</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.55062888307815</v>
@@ -50174,7 +49946,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.636269006702978</v>
+        <v>1.577378154427252</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.307680380431267</v>
@@ -50263,7 +50035,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.641202502511817</v>
+        <v>1.58752349078391</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.172001168569386</v>
@@ -50352,7 +50124,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.652063621326981</v>
+        <v>1.595310574245194</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.869141859341577</v>
@@ -50441,7 +50213,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.651671369560324</v>
+        <v>1.596876091270111</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.502047730140127</v>
@@ -50530,7 +50302,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.654771111801238</v>
+        <v>1.599120726694155</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.529171367304211</v>
@@ -50619,7 +50391,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.646167870791271</v>
+        <v>1.589656577373541</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.445135487606338</v>
@@ -50708,7 +50480,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.645657476584524</v>
+        <v>1.582068242835668</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.483255753237596</v>
@@ -50797,7 +50569,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.647245866313344</v>
+        <v>1.585492428782096</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.89244309128456</v>
@@ -50886,7 +50658,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.661895239561703</v>
+        <v>1.604701766187121</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.598997086003636</v>
@@ -50975,7 +50747,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.664616486072592</v>
+        <v>1.61244535058826</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.62861045799614</v>
@@ -51064,7 +50836,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.631777296191115</v>
+        <v>1.587067043104395</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.016199380061998</v>
@@ -51153,7 +50925,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.635327931230813</v>
+        <v>1.583742927649886</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.99723297413377</v>
@@ -51242,7 +51014,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.635407951060953</v>
+        <v>1.579889045867014</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.037964619827968</v>
@@ -51331,7 +51103,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.648552066453539</v>
+        <v>1.589417909306164</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.027634245783293</v>
@@ -51420,7 +51192,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.639248756267305</v>
+        <v>1.577680443466231</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.11371691814194</v>
@@ -51509,7 +51281,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.640867158443419</v>
+        <v>1.582008168440011</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.18791226426548</v>
@@ -51598,7 +51370,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.643814175452069</v>
+        <v>1.599109823264079</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.759142357973512</v>
@@ -51687,7 +51459,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.665601649220891</v>
+        <v>1.624238130849511</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.854574802641817</v>
